--- a/data/study3_indicatorsCAMs_long.xlsx
+++ b/data/study3_indicatorsCAMs_long.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>CAM_ID</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>num_edges_dashed</t>
+  </si>
+  <si>
+    <t>num_edges_invaliddashed</t>
   </si>
   <si>
     <t>reciprocity</t>
@@ -207,6 +210,9 @@
       <c r="X1" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -252,33 +258,36 @@
         <v>0.0</v>
       </c>
       <c r="O2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P2" t="n">
         <v>0.9</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>-0.23373235803841</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>-0.846452194430159</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>6.0</v>
       </c>
-      <c r="S2" t="n">
-        <v>3.0</v>
-      </c>
       <c r="T2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U2" t="n">
         <v>1.9</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>0.890909090909091</v>
       </c>
-      <c r="V2" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X2" t="n">
         <v>-0.166666666666667</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -326,33 +335,36 @@
         <v>2.0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>-0.116504854368932</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>-0.316836487142164</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>10.0</v>
       </c>
-      <c r="S3" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U3" t="n">
         <v>1.8695652173913</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>0.500331038163436</v>
       </c>
-      <c r="V3" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X3" t="n">
         <v>-0.176470588235294</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Y3" t="n">
         <v>-0.352941176470588</v>
       </c>
     </row>
@@ -400,33 +412,36 @@
         <v>5.0</v>
       </c>
       <c r="O4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P4" t="n">
         <v>0.375</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>0.496216843505835</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>-0.20901814884294</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>8.0</v>
       </c>
-      <c r="S4" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U4" t="n">
         <v>2.1875</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>0.703703063241107</v>
       </c>
-      <c r="V4" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X4" t="n">
         <v>-0.0833333333333333</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Y4" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -474,33 +489,36 @@
         <v>6.0</v>
       </c>
       <c r="O5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P5" t="n">
         <v>0.333333333333333</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>0.525364696678536</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>-0.178881181478329</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>11.0</v>
       </c>
-      <c r="S5" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U5" t="n">
         <v>2.44444444444444</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>0.650822687660923</v>
       </c>
-      <c r="V5" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W5" t="n">
         <v>0.0</v>
       </c>
       <c r="X5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>0.307692307692308</v>
       </c>
     </row>
@@ -548,33 +566,36 @@
         <v>0.0</v>
       </c>
       <c r="O6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P6" t="n">
         <v>0.235294117647059</v>
       </c>
-      <c r="P6" t="e">
+      <c r="Q6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>-0.825417622273138</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>7.0</v>
       </c>
-      <c r="S6" t="n">
-        <v>3.0</v>
-      </c>
       <c r="T6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U6" t="n">
         <v>1.41176470588235</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>0.69340410322815</v>
       </c>
-      <c r="V6" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X6" t="n">
         <v>-0.692307692307692</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Y6" t="n">
         <v>-1.53846153846154</v>
       </c>
     </row>
@@ -622,33 +643,36 @@
         <v>0.0</v>
       </c>
       <c r="O7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P7" t="n">
         <v>0.363636363636364</v>
       </c>
-      <c r="P7" t="e">
+      <c r="Q7" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>-0.522706068773594</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>7.0</v>
       </c>
-      <c r="S7" t="n">
-        <v>3.0</v>
-      </c>
       <c r="T7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.95454545454545</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>0.739249201976474</v>
       </c>
-      <c r="V7" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X7" t="n">
         <v>-0.692307692307692</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Y7" t="n">
         <v>-1.69230769230769</v>
       </c>
     </row>
@@ -696,33 +720,36 @@
         <v>0.0</v>
       </c>
       <c r="O8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P8" t="n">
         <v>0.486486486486487</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>-0.324799177176459</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>-0.262292224291689</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>6.0</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>5.0</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>1.2972972972973</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>0.261652011717581</v>
       </c>
-      <c r="V8" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X8" t="n">
         <v>-0.588235294117647</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Y8" t="n">
         <v>-1.41176470588235</v>
       </c>
     </row>
@@ -770,33 +797,36 @@
         <v>0.0</v>
       </c>
       <c r="O9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P9" t="n">
         <v>0.5</v>
       </c>
-      <c r="P9" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Q9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R9" t="n">
         <v>-0.309504201029803</v>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>6.0</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>5.0</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>1.25</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>0.355652449891594</v>
       </c>
-      <c r="V9" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X9" t="n">
         <v>-0.35</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Y9" t="n">
         <v>-0.65</v>
       </c>
     </row>
@@ -844,33 +874,36 @@
         <v>6.0</v>
       </c>
       <c r="O10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P10" t="n">
         <v>0.758620689655172</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>-0.41574139689344</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>0.146253575842938</v>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>5.0</v>
       </c>
-      <c r="S10" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U10" t="n">
         <v>1.68965517241379</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>0.330184328159605</v>
       </c>
-      <c r="V10" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X10" t="n">
         <v>-0.545454545454545</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Y10" t="n">
         <v>-0.909090909090909</v>
       </c>
     </row>
@@ -918,33 +951,36 @@
         <v>10.0</v>
       </c>
       <c r="O11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P11" t="n">
         <v>0.647058823529412</v>
       </c>
-      <c r="P11" t="n">
+      <c r="Q11" t="n">
         <v>0.030411643663077</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="R11" t="n">
         <v>0.14789828096201801</v>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>6.0</v>
       </c>
-      <c r="S11" t="n">
-        <v>3.0</v>
-      </c>
       <c r="T11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U11" t="n">
         <v>1.85294117647059</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>0.495269138755981</v>
       </c>
-      <c r="V11" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X11" t="n">
         <v>0.25</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Y11" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -995,30 +1031,33 @@
         <v>0.0</v>
       </c>
       <c r="P12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>0.333848930444794</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="R12" t="n">
         <v>-0.477431855316115</v>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>7.0</v>
       </c>
-      <c r="S12" t="n">
-        <v>3.0</v>
-      </c>
       <c r="T12" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="U12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V12" t="n">
         <v>0.38099907795286</v>
       </c>
-      <c r="V12" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X12" t="n">
         <v>-0.333333333333333</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Y12" t="n">
         <v>-0.555555555555556</v>
       </c>
     </row>
@@ -1069,30 +1108,33 @@
         <v>0.0</v>
       </c>
       <c r="P13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>0.286299167156935</v>
       </c>
-      <c r="Q13" t="n">
-        <v>0.0</v>
-      </c>
       <c r="R13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S13" t="n">
         <v>6.0</v>
       </c>
-      <c r="S13" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T13" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U13" t="n">
         <v>1.78571428571429</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>0.234586466165414</v>
       </c>
-      <c r="V13" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X13" t="n">
         <v>-0.4</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Y13" t="n">
         <v>-0.5</v>
       </c>
     </row>
@@ -1140,33 +1182,36 @@
         <v>1.0</v>
       </c>
       <c r="O14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P14" t="n">
         <v>0.0952380952380952</v>
       </c>
-      <c r="P14" t="n">
+      <c r="Q14" t="n">
         <v>0.00559892510955894</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="R14" t="n">
         <v>-0.236454429175634</v>
-      </c>
-      <c r="R14" t="n">
-        <v>5.0</v>
       </c>
       <c r="S14" t="n">
         <v>5.0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V14" t="n">
         <v>0.352047681462226</v>
       </c>
-      <c r="V14" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W14" t="n">
         <v>0.0</v>
       </c>
       <c r="X14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>0.0588235294117647</v>
       </c>
     </row>
@@ -1214,33 +1259,36 @@
         <v>4.0</v>
       </c>
       <c r="O15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P15" t="n">
         <v>0.421052631578947</v>
       </c>
-      <c r="P15" t="n">
+      <c r="Q15" t="n">
         <v>0.320599559178468</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="R15" t="n">
         <v>-0.469861457663044</v>
       </c>
-      <c r="R15" t="n">
-        <v>4.0</v>
-      </c>
       <c r="S15" t="n">
         <v>4.0</v>
       </c>
       <c r="T15" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="U15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V15" t="n">
         <v>0.450298901865398</v>
       </c>
-      <c r="V15" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X15" t="n">
         <v>0.25</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Y15" t="n">
         <v>0.333333333333333</v>
       </c>
     </row>
@@ -1288,33 +1336,36 @@
         <v>6.0</v>
       </c>
       <c r="O16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P16" t="n">
         <v>0.636363636363636</v>
       </c>
-      <c r="P16" t="n">
+      <c r="Q16" t="n">
         <v>0.323498319610316</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="R16" t="n">
         <v>-0.190170418247377</v>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>7.0</v>
       </c>
-      <c r="S16" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U16" t="n">
         <v>1.18181818181818</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>0.465705522418758</v>
       </c>
-      <c r="V16" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X16" t="n">
         <v>-0.333333333333333</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Y16" t="n">
         <v>-0.833333333333333</v>
       </c>
     </row>
@@ -1362,33 +1413,36 @@
         <v>22.0</v>
       </c>
       <c r="O17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P17" t="n">
         <v>0.538461538461538</v>
       </c>
-      <c r="P17" t="n">
+      <c r="Q17" t="n">
         <v>0.311554869297948</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="R17" t="n">
         <v>-0.0936426545691705</v>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>8.0</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>5.0</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>1.15384615384615</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>0.481282983330992</v>
       </c>
-      <c r="V17" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X17" t="n">
         <v>-0.5</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Y17" t="n">
         <v>-0.8125</v>
       </c>
     </row>
@@ -1436,33 +1490,36 @@
         <v>3.0</v>
       </c>
       <c r="O18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P18" t="n">
         <v>0.88</v>
       </c>
-      <c r="P18" t="n">
+      <c r="Q18" t="n">
         <v>-0.24049694663188</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="R18" t="n">
         <v>0.162050747903598</v>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>7.0</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>5.0</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>1.4</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>0.401747123872728</v>
       </c>
-      <c r="V18" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X18" t="n">
         <v>-0.636363636363636</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Y18" t="n">
         <v>-1.90909090909091</v>
       </c>
     </row>
@@ -1510,33 +1567,36 @@
         <v>20.0</v>
       </c>
       <c r="O19" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P19" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="P19" t="n">
+      <c r="Q19" t="n">
         <v>0.0690065559342338</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="R19" t="n">
         <v>-0.00739898810958951</v>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>6.0</v>
       </c>
-      <c r="S19" t="n">
-        <v>3.0</v>
-      </c>
       <c r="T19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U19" t="n">
         <v>1.81818181818182</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>0.445584951684023</v>
       </c>
-      <c r="V19" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X19" t="n">
         <v>-0.384615384615385</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Y19" t="n">
         <v>-1.0</v>
       </c>
     </row>
@@ -1584,33 +1644,36 @@
         <v>24.0</v>
       </c>
       <c r="O20" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P20" t="n">
         <v>0.888888888888889</v>
       </c>
-      <c r="P20" t="n">
+      <c r="Q20" t="n">
         <v>-0.00258994464955279</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="R20" t="n">
         <v>0.17524755701981</v>
       </c>
-      <c r="R20" t="n">
-        <v>3.0</v>
-      </c>
       <c r="S20" t="n">
         <v>3.0</v>
       </c>
       <c r="T20" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U20" t="n">
         <v>1.18518518518519</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>0.281970986959377</v>
       </c>
-      <c r="V20" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X20" t="n">
         <v>-0.0833333333333333</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Y20" t="n">
         <v>-0.0833333333333333</v>
       </c>
     </row>
@@ -1658,33 +1721,36 @@
         <v>12.0</v>
       </c>
       <c r="O21" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P21" t="n">
         <v>0.85</v>
       </c>
-      <c r="P21" t="n">
+      <c r="Q21" t="n">
         <v>-0.148025548466453</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="R21" t="n">
         <v>-0.0179785177186555</v>
       </c>
-      <c r="R21" t="n">
-        <v>3.0</v>
-      </c>
       <c r="S21" t="n">
         <v>3.0</v>
       </c>
       <c r="T21" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="U21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V21" t="n">
         <v>0.549816205943657</v>
       </c>
-      <c r="V21" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X21" t="n">
         <v>-0.272727272727273</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Y21" t="n">
         <v>-0.363636363636364</v>
       </c>
     </row>
@@ -1732,33 +1798,36 @@
         <v>1.0</v>
       </c>
       <c r="O22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P22" t="n">
         <v>0.48</v>
       </c>
-      <c r="P22" t="n">
+      <c r="Q22" t="n">
         <v>-0.312505044349925</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="R22" t="n">
         <v>-0.624499418594317</v>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>5.0</v>
       </c>
-      <c r="S22" t="n">
-        <v>3.0</v>
-      </c>
       <c r="T22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U22" t="n">
         <v>1.44</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>0.217102157102157</v>
       </c>
-      <c r="V22" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X22" t="n">
         <v>-0.0769230769230769</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Y22" t="n">
         <v>0.307692307692308</v>
       </c>
     </row>
@@ -1806,33 +1875,36 @@
         <v>4.0</v>
       </c>
       <c r="O23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P23" t="n">
         <v>0.4375</v>
       </c>
-      <c r="P23" t="n">
+      <c r="Q23" t="n">
         <v>-0.0651220554303803</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="R23" t="n">
         <v>-0.207019667802706</v>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>8.0</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>5.0</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>1.5625</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>0.216225465501008</v>
       </c>
-      <c r="V23" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W23" t="n">
         <v>0.0</v>
       </c>
       <c r="X23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>0.235294117647059</v>
       </c>
     </row>
@@ -1880,33 +1952,36 @@
         <v>7.0</v>
       </c>
       <c r="O24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P24" t="n">
         <v>0.692307692307692</v>
       </c>
-      <c r="P24" t="n">
+      <c r="Q24" t="n">
         <v>-0.390327933561931</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="R24" t="n">
         <v>-0.468041170393706</v>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>8.0</v>
       </c>
-      <c r="S24" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T24" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U24" t="n">
         <v>1.46153846153846</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>0.416682550295819</v>
       </c>
-      <c r="V24" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X24" t="n">
         <v>-0.294117647058824</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Y24" t="n">
         <v>-0.588235294117647</v>
       </c>
     </row>
@@ -1954,33 +2029,36 @@
         <v>13.0</v>
       </c>
       <c r="O25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P25" t="n">
         <v>0.962962962962963</v>
       </c>
-      <c r="P25" t="n">
+      <c r="Q25" t="n">
         <v>-0.53979561904931</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="R25" t="n">
         <v>-0.850483933807805</v>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>6.0</v>
       </c>
-      <c r="S25" t="n">
+      <c r="T25" t="n">
         <v>5.0</v>
       </c>
-      <c r="T25" t="n">
+      <c r="U25" t="n">
         <v>1.14814814814815</v>
       </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
         <v>0.328809558171659</v>
       </c>
-      <c r="V25" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X25" t="n">
         <v>-0.466666666666667</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Y25" t="n">
         <v>-0.666666666666667</v>
       </c>
     </row>
@@ -2028,33 +2106,36 @@
         <v>2.0</v>
       </c>
       <c r="O26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P26" t="n">
         <v>0.363636363636364</v>
       </c>
-      <c r="P26" t="n">
+      <c r="Q26" t="n">
         <v>-0.426026102864331</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="R26" t="n">
         <v>-0.582777985836814</v>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>5.0</v>
       </c>
-      <c r="S26" t="n">
-        <v>3.0</v>
-      </c>
       <c r="T26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U26" t="n">
         <v>1.36363636363636</v>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
         <v>0.234299992770387</v>
       </c>
-      <c r="V26" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X26" t="n">
         <v>-0.5</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Y26" t="n">
         <v>-0.9</v>
       </c>
     </row>
@@ -2102,33 +2183,36 @@
         <v>4.0</v>
       </c>
       <c r="O27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P27" t="n">
         <v>0.3</v>
       </c>
-      <c r="P27" t="n">
+      <c r="Q27" t="n">
         <v>-0.611995335816634</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="R27" t="n">
         <v>-0.509827988934477</v>
       </c>
-      <c r="R27" t="n">
-        <v>3.0</v>
-      </c>
       <c r="S27" t="n">
         <v>3.0</v>
       </c>
       <c r="T27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U27" t="n">
         <v>1.2</v>
       </c>
-      <c r="U27" t="n">
+      <c r="V27" t="n">
         <v>0.126178728070175</v>
       </c>
-      <c r="V27" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X27" t="n">
         <v>-0.6</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Y27" t="n">
         <v>-1.3</v>
       </c>
     </row>
@@ -2176,33 +2260,36 @@
         <v>1.0</v>
       </c>
       <c r="O28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P28" t="n">
         <v>0.166666666666667</v>
       </c>
-      <c r="P28" t="n">
+      <c r="Q28" t="n">
         <v>-0.158776837207489</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="R28" t="n">
         <v>-0.4</v>
       </c>
-      <c r="R28" t="n">
-        <v>3.0</v>
-      </c>
       <c r="S28" t="n">
         <v>3.0</v>
       </c>
       <c r="T28" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U28" t="n">
         <v>1.16666666666667</v>
       </c>
-      <c r="U28" t="n">
+      <c r="V28" t="n">
         <v>0.661071513625693</v>
       </c>
-      <c r="V28" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X28" t="n">
         <v>-0.111111111111111</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Y28" t="n">
         <v>-0.111111111111111</v>
       </c>
     </row>
@@ -2250,33 +2337,36 @@
         <v>0.0</v>
       </c>
       <c r="O29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P29" t="n">
         <v>0.4</v>
       </c>
-      <c r="P29" t="n">
+      <c r="Q29" t="n">
         <v>0.47301616487964</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="R29" t="n">
         <v>0.0637312410638075</v>
-      </c>
-      <c r="R29" t="n">
-        <v>5.0</v>
       </c>
       <c r="S29" t="n">
         <v>5.0</v>
       </c>
       <c r="T29" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U29" t="n">
         <v>1.26666666666667</v>
       </c>
-      <c r="U29" t="n">
+      <c r="V29" t="n">
         <v>0.527579191641692</v>
       </c>
-      <c r="V29" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X29" t="n">
         <v>-0.1</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Y29" t="n">
         <v>-0.4</v>
       </c>
     </row>
@@ -2324,33 +2414,36 @@
         <v>0.0</v>
       </c>
       <c r="O30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q30" t="n">
         <v>-0.495601173020528</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="R30" t="n">
         <v>-0.431297709923664</v>
       </c>
-      <c r="R30" t="n">
-        <v>4.0</v>
-      </c>
       <c r="S30" t="n">
         <v>4.0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="U30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V30" t="n">
         <v>0.463396450262479</v>
       </c>
-      <c r="V30" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X30" t="n">
         <v>-0.307692307692308</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Y30" t="n">
         <v>-0.384615384615385</v>
       </c>
     </row>
@@ -2398,33 +2491,36 @@
         <v>0.0</v>
       </c>
       <c r="O31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q31" t="n">
         <v>-0.294117647058822</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="R31" t="n">
         <v>-0.108527131782946</v>
       </c>
-      <c r="R31" t="n">
-        <v>4.0</v>
-      </c>
       <c r="S31" t="n">
         <v>4.0</v>
       </c>
       <c r="T31" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="U31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V31" t="n">
         <v>0.497419418343331</v>
       </c>
-      <c r="V31" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X31" t="n">
         <v>-0.363636363636364</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Y31" t="n">
         <v>-0.454545454545455</v>
       </c>
     </row>
@@ -2472,33 +2568,36 @@
         <v>0.0</v>
       </c>
       <c r="O32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P32" t="n">
         <v>0.774193548387097</v>
       </c>
-      <c r="P32" t="n">
+      <c r="Q32" t="n">
         <v>0.434847107644504</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="R32" t="n">
         <v>-0.0622724574503645</v>
       </c>
-      <c r="R32" t="n">
+      <c r="S32" t="n">
         <v>6.0</v>
       </c>
-      <c r="S32" t="n">
+      <c r="T32" t="n">
         <v>5.0</v>
       </c>
-      <c r="T32" t="n">
+      <c r="U32" t="n">
         <v>1.32258064516129</v>
       </c>
-      <c r="U32" t="n">
+      <c r="V32" t="n">
         <v>0.251276022674468</v>
       </c>
-      <c r="V32" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X32" t="n">
         <v>-0.5</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Y32" t="n">
         <v>-0.916666666666667</v>
       </c>
     </row>
@@ -2546,33 +2645,36 @@
         <v>0.0</v>
       </c>
       <c r="O33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P33" t="n">
         <v>0.971428571428571</v>
       </c>
-      <c r="P33" t="n">
+      <c r="Q33" t="n">
         <v>-0.00294199097530317</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="R33" t="n">
         <v>-0.320317326246073</v>
       </c>
-      <c r="R33" t="n">
-        <v>4.0</v>
-      </c>
       <c r="S33" t="n">
         <v>4.0</v>
       </c>
       <c r="T33" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="U33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V33" t="n">
         <v>0.340562155638584</v>
       </c>
-      <c r="V33" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X33" t="n">
         <v>-0.25</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Y33" t="n">
         <v>-0.666666666666667</v>
       </c>
     </row>
@@ -2620,33 +2722,36 @@
         <v>3.0</v>
       </c>
       <c r="O34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P34" t="n">
         <v>0.930232558139535</v>
       </c>
-      <c r="P34" t="n">
+      <c r="Q34" t="n">
         <v>-0.21081851067789</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="R34" t="n">
         <v>-0.576881025424608</v>
       </c>
-      <c r="R34" t="n">
+      <c r="S34" t="n">
         <v>5.0</v>
       </c>
-      <c r="S34" t="n">
-        <v>3.0</v>
-      </c>
       <c r="T34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U34" t="n">
         <v>1.23255813953488</v>
       </c>
-      <c r="U34" t="n">
+      <c r="V34" t="n">
         <v>0.605714021994393</v>
       </c>
-      <c r="V34" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X34" t="n">
         <v>-0.857142857142857</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Y34" t="n">
         <v>-2.07142857142857</v>
       </c>
     </row>
@@ -2694,33 +2799,36 @@
         <v>0.0</v>
       </c>
       <c r="O35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P35" t="n">
         <v>0.95</v>
       </c>
-      <c r="P35" t="n">
+      <c r="Q35" t="n">
         <v>-0.252623366696043</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="R35" t="n">
         <v>-0.191585333533787</v>
       </c>
-      <c r="R35" t="n">
-        <v>4.0</v>
-      </c>
       <c r="S35" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="T35" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U35" t="n">
         <v>1.15</v>
       </c>
-      <c r="U35" t="n">
+      <c r="V35" t="n">
         <v>0.582305784266569</v>
       </c>
-      <c r="V35" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X35" t="n">
         <v>-0.545454545454545</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Y35" t="n">
         <v>-1.36363636363636</v>
       </c>
     </row>
@@ -2768,33 +2876,36 @@
         <v>3.0</v>
       </c>
       <c r="O36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P36" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="P36" t="n">
+      <c r="Q36" t="n">
         <v>-0.456999174157268</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="R36" t="n">
         <v>-0.0948891395352647</v>
-      </c>
-      <c r="R36" t="n">
-        <v>7.0</v>
       </c>
       <c r="S36" t="n">
         <v>7.0</v>
       </c>
       <c r="T36" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="U36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V36" t="n">
         <v>0.280471220886318</v>
       </c>
-      <c r="V36" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X36" t="n">
         <v>-0.333333333333333</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Y36" t="n">
         <v>-0.666666666666667</v>
       </c>
     </row>
@@ -2842,33 +2953,36 @@
         <v>8.0</v>
       </c>
       <c r="O37" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P37" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="P37" t="n">
+      <c r="Q37" t="n">
         <v>0.12795957793089</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="R37" t="n">
         <v>-0.0380043120065662</v>
-      </c>
-      <c r="R37" t="n">
-        <v>6.0</v>
       </c>
       <c r="S37" t="n">
         <v>6.0</v>
       </c>
       <c r="T37" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="U37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V37" t="n">
         <v>0.336368164607237</v>
       </c>
-      <c r="V37" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X37" t="n">
         <v>-0.15</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Y37" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -2916,33 +3030,36 @@
         <v>2.0</v>
       </c>
       <c r="O38" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P38" t="n">
         <v>0.6</v>
       </c>
-      <c r="P38" t="n">
+      <c r="Q38" t="n">
         <v>-0.133074827804663</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="R38" t="n">
         <v>0.15042366316917</v>
       </c>
-      <c r="R38" t="n">
+      <c r="S38" t="n">
         <v>11.0</v>
       </c>
-      <c r="S38" t="n">
+      <c r="T38" t="n">
         <v>5.0</v>
       </c>
-      <c r="T38" t="n">
-        <v>2.0</v>
-      </c>
       <c r="U38" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V38" t="n">
         <v>0.394099523042359</v>
       </c>
-      <c r="V38" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X38" t="n">
         <v>-0.181818181818182</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Y38" t="n">
         <v>-0.0909090909090909</v>
       </c>
     </row>
@@ -2990,33 +3107,36 @@
         <v>4.0</v>
       </c>
       <c r="O39" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P39" t="n">
         <v>0.266666666666667</v>
       </c>
-      <c r="P39" t="n">
+      <c r="Q39" t="n">
         <v>0.282138246343438</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="R39" t="n">
         <v>-0.0775217091182553</v>
       </c>
-      <c r="R39" t="n">
-        <v>4.0</v>
-      </c>
       <c r="S39" t="n">
         <v>4.0</v>
       </c>
       <c r="T39" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="U39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V39" t="n">
         <v>0.348497901951849</v>
       </c>
-      <c r="V39" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X39" t="n">
         <v>-0.1</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Y39" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -3064,33 +3184,36 @@
         <v>8.0</v>
       </c>
       <c r="O40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P40" t="n">
         <v>0.363636363636364</v>
       </c>
-      <c r="P40" t="n">
+      <c r="Q40" t="n">
         <v>0.523841519820831</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="R40" t="n">
         <v>0.186874562013258</v>
       </c>
-      <c r="R40" t="n">
+      <c r="S40" t="n">
         <v>18.0</v>
       </c>
-      <c r="S40" t="n">
+      <c r="T40" t="n">
         <v>8.0</v>
       </c>
-      <c r="T40" t="n">
+      <c r="U40" t="n">
         <v>1.77272727272727</v>
       </c>
-      <c r="U40" t="n">
+      <c r="V40" t="n">
         <v>0.381034253280118</v>
       </c>
-      <c r="V40" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X40" t="n">
         <v>-0.388888888888889</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Y40" t="n">
         <v>-0.944444444444444</v>
       </c>
     </row>
@@ -3138,33 +3261,36 @@
         <v>3.0</v>
       </c>
       <c r="O41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P41" t="n">
         <v>0.434782608695652</v>
       </c>
-      <c r="P41" t="n">
+      <c r="Q41" t="n">
         <v>-0.315869839737998</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="R41" t="n">
         <v>-0.0545595471576379</v>
       </c>
-      <c r="R41" t="n">
+      <c r="S41" t="n">
         <v>9.0</v>
       </c>
-      <c r="S41" t="n">
+      <c r="T41" t="n">
         <v>6.0</v>
       </c>
-      <c r="T41" t="n">
+      <c r="U41" t="n">
         <v>1.30434782608696</v>
       </c>
-      <c r="U41" t="n">
+      <c r="V41" t="n">
         <v>0.33144118012621</v>
       </c>
-      <c r="V41" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X41" t="n">
         <v>-0.529411764705882</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Y41" t="n">
         <v>-1.41176470588235</v>
       </c>
     </row>
@@ -3212,33 +3338,36 @@
         <v>2.0</v>
       </c>
       <c r="O42" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P42" t="n">
         <v>0.782608695652174</v>
       </c>
-      <c r="P42" t="n">
+      <c r="Q42" t="n">
         <v>-0.106796116504855</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="R42" t="n">
         <v>-0.305726133113394</v>
       </c>
-      <c r="R42" t="n">
+      <c r="S42" t="n">
         <v>9.0</v>
       </c>
-      <c r="S42" t="n">
+      <c r="T42" t="n">
         <v>5.0</v>
       </c>
-      <c r="T42" t="n">
+      <c r="U42" t="n">
         <v>1.39130434782609</v>
       </c>
-      <c r="U42" t="n">
+      <c r="V42" t="n">
         <v>0.41525232217199</v>
       </c>
-      <c r="V42" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X42" t="n">
         <v>-0.333333333333333</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Y42" t="n">
         <v>-1.0</v>
       </c>
     </row>
@@ -3286,33 +3415,36 @@
         <v>1.0</v>
       </c>
       <c r="O43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P43" t="n">
         <v>0.692307692307692</v>
       </c>
-      <c r="P43" t="n">
+      <c r="Q43" t="n">
         <v>-0.438673238899202</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="R43" t="n">
         <v>-0.0118578001362814</v>
       </c>
-      <c r="R43" t="n">
+      <c r="S43" t="n">
         <v>7.0</v>
       </c>
-      <c r="S43" t="n">
+      <c r="T43" t="n">
         <v>5.0</v>
       </c>
-      <c r="T43" t="n">
+      <c r="U43" t="n">
         <v>1.23076923076923</v>
       </c>
-      <c r="U43" t="n">
+      <c r="V43" t="n">
         <v>0.451279134086187</v>
       </c>
-      <c r="V43" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X43" t="n">
         <v>-0.538461538461538</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Y43" t="n">
         <v>-1.07692307692308</v>
       </c>
     </row>
@@ -3360,33 +3492,36 @@
         <v>1.0</v>
       </c>
       <c r="O44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P44" t="n">
         <v>0.7</v>
       </c>
-      <c r="P44" t="n">
+      <c r="Q44" t="n">
         <v>0.0488765325324301</v>
       </c>
-      <c r="Q44" t="n">
+      <c r="R44" t="n">
         <v>-0.374701409300532</v>
       </c>
-      <c r="R44" t="n">
-        <v>4.0</v>
-      </c>
       <c r="S44" t="n">
         <v>4.0</v>
       </c>
       <c r="T44" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="U44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V44" t="n">
         <v>0.518961352657005</v>
       </c>
-      <c r="V44" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X44" t="n">
         <v>-0.363636363636364</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Y44" t="n">
         <v>-0.909090909090909</v>
       </c>
     </row>
@@ -3434,33 +3569,36 @@
         <v>0.0</v>
       </c>
       <c r="O45" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P45" t="e">
+        <v>0.0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q45" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="R45" t="n">
         <v>-0.290322580645161</v>
       </c>
-      <c r="R45" t="n">
-        <v>4.0</v>
-      </c>
       <c r="S45" t="n">
         <v>4.0</v>
       </c>
       <c r="T45" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U45" t="n">
         <v>1.1</v>
       </c>
-      <c r="U45" t="n">
+      <c r="V45" t="n">
         <v>0.280129775195565</v>
       </c>
-      <c r="V45" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X45" t="n">
         <v>-1.0</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Y45" t="n">
         <v>-2.25</v>
       </c>
     </row>
@@ -3508,33 +3646,36 @@
         <v>0.0</v>
       </c>
       <c r="O46" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q46" t="n">
         <v>-0.0344827586206876</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="R46" t="n">
         <v>-0.091644204851752</v>
       </c>
-      <c r="R46" t="n">
-        <v>4.0</v>
-      </c>
       <c r="S46" t="n">
         <v>4.0</v>
       </c>
       <c r="T46" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="U46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V46" t="n">
         <v>0.539469459112316</v>
       </c>
-      <c r="V46" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X46" t="n">
         <v>-0.888888888888889</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Y46" t="n">
         <v>-2.66666666666667</v>
       </c>
     </row>
@@ -3585,30 +3726,33 @@
         <v>0.0</v>
       </c>
       <c r="P47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q47" t="n">
         <v>-0.148566725992304</v>
       </c>
-      <c r="Q47" t="n">
+      <c r="R47" t="n">
         <v>-0.591607978309962</v>
       </c>
-      <c r="R47" t="n">
+      <c r="S47" t="n">
         <v>6.0</v>
       </c>
-      <c r="S47" t="n">
-        <v>2.0</v>
-      </c>
       <c r="T47" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U47" t="n">
         <v>1.92307692307692</v>
       </c>
-      <c r="U47" t="n">
+      <c r="V47" t="n">
         <v>0.962236746550472</v>
       </c>
-      <c r="V47" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X47" t="n">
         <v>-0.272727272727273</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Y47" t="n">
         <v>-0.454545454545455</v>
       </c>
     </row>
@@ -3656,33 +3800,36 @@
         <v>0.0</v>
       </c>
       <c r="O48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P48" t="n">
         <v>0.625</v>
       </c>
-      <c r="P48" t="n">
+      <c r="Q48" t="n">
         <v>-0.0234597044424294</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="R48" t="n">
         <v>-0.915249233498881</v>
       </c>
-      <c r="R48" t="n">
+      <c r="S48" t="n">
         <v>6.0</v>
       </c>
-      <c r="S48" t="n">
-        <v>2.0</v>
-      </c>
       <c r="T48" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U48" t="n">
         <v>1.5</v>
       </c>
-      <c r="U48" t="n">
+      <c r="V48" t="n">
         <v>0.987654320987654</v>
       </c>
-      <c r="V48" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X48" t="n">
         <v>-0.272727272727273</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Y48" t="n">
         <v>-0.636363636363636</v>
       </c>
     </row>
@@ -3730,33 +3877,36 @@
         <v>4.0</v>
       </c>
       <c r="O49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P49" t="n">
         <v>0.75</v>
       </c>
-      <c r="P49" t="n">
+      <c r="Q49" t="n">
         <v>-0.498589414123706</v>
       </c>
-      <c r="Q49" t="n">
+      <c r="R49" t="n">
         <v>-0.357853589899852</v>
-      </c>
-      <c r="R49" t="n">
-        <v>5.0</v>
       </c>
       <c r="S49" t="n">
         <v>5.0</v>
       </c>
       <c r="T49" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V49" t="n">
         <v>0.25004008857587</v>
       </c>
-      <c r="V49" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X49" t="n">
         <v>-0.25</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Y49" t="n">
         <v>-0.583333333333333</v>
       </c>
     </row>
@@ -3804,33 +3954,36 @@
         <v>2.0</v>
       </c>
       <c r="O50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P50" t="n">
         <v>0.6</v>
       </c>
-      <c r="P50" t="n">
+      <c r="Q50" t="n">
         <v>0.250872603002127</v>
       </c>
-      <c r="Q50" t="n">
+      <c r="R50" t="n">
         <v>-0.393534185134093</v>
-      </c>
-      <c r="R50" t="n">
-        <v>6.0</v>
       </c>
       <c r="S50" t="n">
         <v>6.0</v>
       </c>
       <c r="T50" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="U50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V50" t="n">
         <v>0.245580406911929</v>
       </c>
-      <c r="V50" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W50" t="n">
         <v>0.0</v>
       </c>
       <c r="X50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y50" t="n">
         <v>-0.0833333333333333</v>
       </c>
     </row>
@@ -3878,33 +4031,36 @@
         <v>0.0</v>
       </c>
       <c r="O51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P51" t="n">
         <v>0.777777777777778</v>
       </c>
-      <c r="P51" t="n">
+      <c r="Q51" t="n">
         <v>-0.0274204248553549</v>
       </c>
-      <c r="Q51" t="n">
+      <c r="R51" t="n">
         <v>0.229782905822399</v>
       </c>
-      <c r="R51" t="n">
+      <c r="S51" t="n">
         <v>7.0</v>
       </c>
-      <c r="S51" t="n">
-        <v>3.0</v>
-      </c>
       <c r="T51" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U51" t="n">
         <v>1.7962962962963</v>
       </c>
-      <c r="U51" t="n">
+      <c r="V51" t="n">
         <v>0.505446807620721</v>
       </c>
-      <c r="V51" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X51" t="n">
         <v>-0.727272727272727</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Y51" t="n">
         <v>-1.63636363636364</v>
       </c>
     </row>
@@ -3952,33 +4108,36 @@
         <v>0.0</v>
       </c>
       <c r="O52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P52" t="n">
         <v>0.285714285714286</v>
       </c>
-      <c r="P52" t="n">
+      <c r="Q52" t="n">
         <v>-0.434057366141215</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="R52" t="n">
         <v>-0.720883045072059</v>
       </c>
-      <c r="R52" t="n">
-        <v>3.0</v>
-      </c>
       <c r="S52" t="n">
         <v>3.0</v>
       </c>
       <c r="T52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U52" t="n">
         <v>1.53571428571429</v>
       </c>
-      <c r="U52" t="n">
+      <c r="V52" t="n">
         <v>0.640766861568226</v>
       </c>
-      <c r="V52" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X52" t="n">
         <v>-0.545454545454545</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Y52" t="n">
         <v>-1.63636363636364</v>
       </c>
     </row>
@@ -4026,33 +4185,36 @@
         <v>3.0</v>
       </c>
       <c r="O53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P53" t="n">
         <v>0.555555555555556</v>
       </c>
-      <c r="P53" t="n">
+      <c r="Q53" t="n">
         <v>-0.0502518907629599</v>
       </c>
-      <c r="Q53" t="n">
+      <c r="R53" t="n">
         <v>-0.405321741688889</v>
       </c>
-      <c r="R53" t="n">
+      <c r="S53" t="n">
         <v>6.0</v>
       </c>
-      <c r="S53" t="n">
-        <v>3.0</v>
-      </c>
       <c r="T53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U53" t="n">
         <v>1.44444444444444</v>
       </c>
-      <c r="U53" t="n">
+      <c r="V53" t="n">
         <v>0.519940001518949</v>
       </c>
-      <c r="V53" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X53" t="n">
         <v>-0.1</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Y53" t="n">
         <v>-0.5</v>
       </c>
     </row>
@@ -4100,33 +4262,36 @@
         <v>5.0</v>
       </c>
       <c r="O54" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P54" t="n">
         <v>0.333333333333333</v>
       </c>
-      <c r="P54" t="n">
+      <c r="Q54" t="n">
         <v>0.45675013919557</v>
       </c>
-      <c r="Q54" t="n">
+      <c r="R54" t="n">
         <v>-0.145134902562033</v>
       </c>
-      <c r="R54" t="n">
+      <c r="S54" t="n">
         <v>9.0</v>
       </c>
-      <c r="S54" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T54" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U54" t="n">
         <v>1.88888888888889</v>
       </c>
-      <c r="U54" t="n">
+      <c r="V54" t="n">
         <v>0.496235012769042</v>
       </c>
-      <c r="V54" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X54" t="n">
         <v>-0.0833333333333333</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Y54" t="n">
         <v>0.0833333333333333</v>
       </c>
     </row>
@@ -4174,16 +4339,16 @@
         <v>0.0</v>
       </c>
       <c r="O55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P55" t="e">
-        <v>#N/A</v>
+        <v>0.0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1.0</v>
       </c>
       <c r="Q55" t="e">
         <v>#N/A</v>
       </c>
-      <c r="R55" t="n">
-        <v>1.0</v>
+      <c r="R55" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S55" t="n">
         <v>1.0</v>
@@ -4191,16 +4356,19 @@
       <c r="T55" t="n">
         <v>1.0</v>
       </c>
-      <c r="U55" t="e">
+      <c r="U55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V55" t="e">
         <v>#N/A</v>
       </c>
-      <c r="V55" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W55" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y55" t="n">
         <v>2.5</v>
       </c>
     </row>
@@ -4248,33 +4416,36 @@
         <v>0.0</v>
       </c>
       <c r="O56" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P56" t="e">
+        <v>0.0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q56" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Q56" t="n">
+      <c r="R56" t="n">
         <v>-0.440691280439906</v>
       </c>
-      <c r="R56" t="n">
-        <v>3.0</v>
-      </c>
       <c r="S56" t="n">
         <v>3.0</v>
       </c>
       <c r="T56" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="U56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V56" t="n">
         <v>0.778094806763285</v>
       </c>
-      <c r="V56" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W56" t="n">
         <v>0.0</v>
       </c>
       <c r="X56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y56" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -4322,33 +4493,36 @@
         <v>2.0</v>
       </c>
       <c r="O57" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P57" t="n">
         <v>0.949152542372881</v>
       </c>
-      <c r="P57" t="n">
+      <c r="Q57" t="n">
         <v>0.399074074074074</v>
       </c>
-      <c r="Q57" t="n">
+      <c r="R57" t="n">
         <v>0.167750178699778</v>
       </c>
-      <c r="R57" t="n">
+      <c r="S57" t="n">
         <v>14.0</v>
       </c>
-      <c r="S57" t="n">
+      <c r="T57" t="n">
         <v>6.0</v>
       </c>
-      <c r="T57" t="n">
+      <c r="U57" t="n">
         <v>1.57627118644068</v>
       </c>
-      <c r="U57" t="n">
+      <c r="V57" t="n">
         <v>0.318967896381301</v>
       </c>
-      <c r="V57" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X57" t="n">
         <v>-0.380952380952381</v>
       </c>
-      <c r="X57" t="n">
+      <c r="Y57" t="n">
         <v>-1.0</v>
       </c>
     </row>
@@ -4396,33 +4570,36 @@
         <v>8.0</v>
       </c>
       <c r="O58" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P58" t="n">
         <v>0.981132075471698</v>
       </c>
-      <c r="P58" t="n">
+      <c r="Q58" t="n">
         <v>0.241308793456032</v>
       </c>
-      <c r="Q58" t="n">
+      <c r="R58" t="n">
         <v>-0.168899016686465</v>
       </c>
-      <c r="R58" t="n">
+      <c r="S58" t="n">
         <v>8.0</v>
       </c>
-      <c r="S58" t="n">
+      <c r="T58" t="n">
         <v>6.0</v>
       </c>
-      <c r="T58" t="n">
+      <c r="U58" t="n">
         <v>1.33962264150943</v>
       </c>
-      <c r="U58" t="n">
+      <c r="V58" t="n">
         <v>0.197683768532791</v>
       </c>
-      <c r="V58" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X58" t="n">
         <v>-0.15</v>
       </c>
-      <c r="X58" t="n">
+      <c r="Y58" t="n">
         <v>-0.45</v>
       </c>
     </row>
@@ -4470,33 +4647,36 @@
         <v>4.0</v>
       </c>
       <c r="O59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P59" t="n">
         <v>0.682926829268293</v>
       </c>
-      <c r="P59" t="n">
+      <c r="Q59" t="n">
         <v>-0.370972826240424</v>
       </c>
-      <c r="Q59" t="n">
+      <c r="R59" t="n">
         <v>-0.0435562154237648</v>
       </c>
-      <c r="R59" t="n">
+      <c r="S59" t="n">
         <v>17.0</v>
       </c>
-      <c r="S59" t="n">
+      <c r="T59" t="n">
         <v>11.0</v>
       </c>
-      <c r="T59" t="n">
+      <c r="U59" t="n">
         <v>1.4390243902439</v>
       </c>
-      <c r="U59" t="n">
+      <c r="V59" t="n">
         <v>0.227000133502858</v>
       </c>
-      <c r="V59" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X59" t="n">
         <v>-0.346153846153846</v>
       </c>
-      <c r="X59" t="n">
+      <c r="Y59" t="n">
         <v>-0.807692307692308</v>
       </c>
     </row>
@@ -4544,33 +4724,36 @@
         <v>6.0</v>
       </c>
       <c r="O60" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P60" t="n">
         <v>0.615384615384615</v>
       </c>
-      <c r="P60" t="n">
+      <c r="Q60" t="n">
         <v>-0.252365496644034</v>
       </c>
-      <c r="Q60" t="n">
+      <c r="R60" t="n">
         <v>-0.101020646640608</v>
       </c>
-      <c r="R60" t="n">
+      <c r="S60" t="n">
         <v>22.0</v>
       </c>
-      <c r="S60" t="n">
+      <c r="T60" t="n">
         <v>12.0</v>
       </c>
-      <c r="T60" t="n">
+      <c r="U60" t="n">
         <v>1.69230769230769</v>
       </c>
-      <c r="U60" t="n">
+      <c r="V60" t="n">
         <v>0.217350145411487</v>
       </c>
-      <c r="V60" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X60" t="n">
         <v>-0.25</v>
       </c>
-      <c r="X60" t="n">
+      <c r="Y60" t="n">
         <v>-0.0833333333333333</v>
       </c>
     </row>
@@ -4618,33 +4801,36 @@
         <v>0.0</v>
       </c>
       <c r="O61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P61" t="n">
         <v>0.5</v>
       </c>
-      <c r="P61" t="n">
+      <c r="Q61" t="n">
         <v>-0.250000000000001</v>
       </c>
-      <c r="Q61" t="n">
+      <c r="R61" t="n">
         <v>-0.221470199008916</v>
-      </c>
-      <c r="R61" t="n">
-        <v>5.0</v>
       </c>
       <c r="S61" t="n">
         <v>5.0</v>
       </c>
       <c r="T61" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V61" t="n">
         <v>0.274795401687268</v>
       </c>
-      <c r="V61" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X61" t="n">
         <v>-0.583333333333333</v>
       </c>
-      <c r="X61" t="n">
+      <c r="Y61" t="n">
         <v>-1.25</v>
       </c>
     </row>
@@ -4692,33 +4878,36 @@
         <v>0.0</v>
       </c>
       <c r="O62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P62" t="n">
         <v>0.352941176470588</v>
       </c>
-      <c r="P62" t="n">
+      <c r="Q62" t="n">
         <v>-0.545454545454545</v>
       </c>
-      <c r="Q62" t="n">
+      <c r="R62" t="n">
         <v>-0.149739903780078</v>
-      </c>
-      <c r="R62" t="n">
-        <v>5.0</v>
       </c>
       <c r="S62" t="n">
         <v>5.0</v>
       </c>
       <c r="T62" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V62" t="n">
         <v>0.294959652894998</v>
       </c>
-      <c r="V62" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X62" t="n">
         <v>-0.583333333333333</v>
       </c>
-      <c r="X62" t="n">
+      <c r="Y62" t="n">
         <v>-1.5</v>
       </c>
     </row>
@@ -4766,33 +4955,36 @@
         <v>2.0</v>
       </c>
       <c r="O63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P63" t="n">
         <v>0.25</v>
       </c>
-      <c r="P63" t="n">
+      <c r="Q63" t="n">
         <v>-0.218217890235992</v>
       </c>
-      <c r="Q63" t="n">
+      <c r="R63" t="n">
         <v>-0.0880450906325624</v>
       </c>
-      <c r="R63" t="n">
-        <v>4.0</v>
-      </c>
       <c r="S63" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="T63" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U63" t="n">
         <v>1.375</v>
       </c>
-      <c r="U63" t="n">
+      <c r="V63" t="n">
         <v>0.714126984126984</v>
       </c>
-      <c r="V63" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X63" t="n">
         <v>-0.285714285714286</v>
       </c>
-      <c r="X63" t="n">
+      <c r="Y63" t="n">
         <v>-0.285714285714286</v>
       </c>
     </row>
@@ -4840,33 +5032,36 @@
         <v>0.0</v>
       </c>
       <c r="O64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P64" t="n">
         <v>0.363636363636364</v>
       </c>
-      <c r="P64" t="n">
+      <c r="Q64" t="n">
         <v>-0.226686817501633</v>
       </c>
-      <c r="Q64" t="n">
+      <c r="R64" t="n">
         <v>-0.579721327499946</v>
       </c>
-      <c r="R64" t="n">
+      <c r="S64" t="n">
         <v>5.0</v>
       </c>
-      <c r="S64" t="n">
-        <v>2.0</v>
-      </c>
       <c r="T64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U64" t="n">
         <v>1.54545454545455</v>
       </c>
-      <c r="U64" t="n">
+      <c r="V64" t="n">
         <v>0.871111111111112</v>
       </c>
-      <c r="V64" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W64" t="n">
         <v>0.0</v>
       </c>
       <c r="X64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y64" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -4914,33 +5109,36 @@
         <v>2.0</v>
       </c>
       <c r="O65" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P65" t="n">
         <v>0.931034482758621</v>
       </c>
-      <c r="P65" t="n">
+      <c r="Q65" t="n">
         <v>0.149533909752911</v>
       </c>
-      <c r="Q65" t="n">
+      <c r="R65" t="n">
         <v>0.0457233234951542</v>
       </c>
-      <c r="R65" t="n">
+      <c r="S65" t="n">
         <v>11.0</v>
       </c>
-      <c r="S65" t="n">
+      <c r="T65" t="n">
         <v>7.0</v>
       </c>
-      <c r="T65" t="n">
+      <c r="U65" t="n">
         <v>1.53448275862069</v>
       </c>
-      <c r="U65" t="n">
+      <c r="V65" t="n">
         <v>0.207542573355677</v>
       </c>
-      <c r="V65" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X65" t="n">
         <v>-0.333333333333333</v>
       </c>
-      <c r="X65" t="n">
+      <c r="Y65" t="n">
         <v>-0.380952380952381</v>
       </c>
     </row>
@@ -4988,33 +5186,36 @@
         <v>1.0</v>
       </c>
       <c r="O66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P66" t="n">
         <v>0.923076923076923</v>
       </c>
-      <c r="P66" t="n">
+      <c r="Q66" t="n">
         <v>0.134651351094329</v>
       </c>
-      <c r="Q66" t="n">
+      <c r="R66" t="n">
         <v>-0.027443338259654</v>
-      </c>
-      <c r="R66" t="n">
-        <v>5.0</v>
       </c>
       <c r="S66" t="n">
         <v>5.0</v>
       </c>
       <c r="T66" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U66" t="n">
         <v>1.03846153846154</v>
       </c>
-      <c r="U66" t="n">
+      <c r="V66" t="n">
         <v>0.335346606801683</v>
       </c>
-      <c r="V66" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X66" t="n">
         <v>-0.470588235294118</v>
       </c>
-      <c r="X66" t="n">
+      <c r="Y66" t="n">
         <v>-0.764705882352941</v>
       </c>
     </row>
@@ -5062,33 +5263,36 @@
         <v>3.0</v>
       </c>
       <c r="O67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P67" t="n">
         <v>0.888888888888889</v>
       </c>
-      <c r="P67" t="n">
+      <c r="Q67" t="n">
         <v>0.522893604396714</v>
       </c>
-      <c r="Q67" t="n">
+      <c r="R67" t="n">
         <v>-0.191413318275537</v>
       </c>
-      <c r="R67" t="n">
+      <c r="S67" t="n">
         <v>6.0</v>
       </c>
-      <c r="S67" t="n">
+      <c r="T67" t="n">
         <v>5.0</v>
       </c>
-      <c r="T67" t="n">
+      <c r="U67" t="n">
         <v>1.02777777777778</v>
       </c>
-      <c r="U67" t="n">
+      <c r="V67" t="n">
         <v>0.411308019031879</v>
       </c>
-      <c r="V67" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X67" t="n">
         <v>-0.388888888888889</v>
       </c>
-      <c r="X67" t="n">
+      <c r="Y67" t="n">
         <v>-0.611111111111111</v>
       </c>
     </row>
@@ -5136,33 +5340,36 @@
         <v>0.0</v>
       </c>
       <c r="O68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P68" t="n">
         <v>0.96551724137931</v>
       </c>
-      <c r="P68" t="n">
+      <c r="Q68" t="n">
         <v>-0.02755905511811</v>
       </c>
-      <c r="Q68" t="n">
+      <c r="R68" t="n">
         <v>-0.426576870460965</v>
-      </c>
-      <c r="R68" t="n">
-        <v>6.0</v>
       </c>
       <c r="S68" t="n">
         <v>6.0</v>
       </c>
       <c r="T68" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="U68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V68" t="n">
         <v>0.417174460757792</v>
       </c>
-      <c r="V68" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X68" t="n">
         <v>-0.24</v>
       </c>
-      <c r="X68" t="n">
+      <c r="Y68" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -5210,33 +5417,36 @@
         <v>4.0</v>
       </c>
       <c r="O69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P69" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="P69" t="n">
+      <c r="Q69" t="n">
         <v>-0.14638501094228</v>
       </c>
-      <c r="Q69" t="n">
+      <c r="R69" t="n">
         <v>-0.130120009726471</v>
       </c>
-      <c r="R69" t="n">
+      <c r="S69" t="n">
         <v>9.0</v>
       </c>
-      <c r="S69" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T69" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U69" t="n">
         <v>2.04166666666667</v>
       </c>
-      <c r="U69" t="n">
+      <c r="V69" t="n">
         <v>0.344503732981994</v>
       </c>
-      <c r="V69" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X69" t="n">
         <v>-0.0833333333333333</v>
       </c>
-      <c r="X69" t="n">
+      <c r="Y69" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -5284,33 +5494,36 @@
         <v>5.0</v>
       </c>
       <c r="O70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P70" t="n">
         <v>0.352941176470588</v>
       </c>
-      <c r="P70" t="n">
+      <c r="Q70" t="n">
         <v>0.423008475343894</v>
       </c>
-      <c r="Q70" t="n">
+      <c r="R70" t="n">
         <v>-0.352771738898738</v>
       </c>
-      <c r="R70" t="n">
+      <c r="S70" t="n">
         <v>10.0</v>
       </c>
-      <c r="S70" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T70" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U70" t="n">
         <v>1.94117647058824</v>
       </c>
-      <c r="U70" t="n">
+      <c r="V70" t="n">
         <v>0.634462090054195</v>
       </c>
-      <c r="V70" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X70" t="n">
         <v>-0.142857142857143</v>
       </c>
-      <c r="X70" t="n">
+      <c r="Y70" t="n">
         <v>-0.214285714285714</v>
       </c>
     </row>
@@ -5358,33 +5571,36 @@
         <v>0.0</v>
       </c>
       <c r="O71" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q71" t="n">
         <v>-0.0188679245283024</v>
       </c>
-      <c r="Q71" t="n">
+      <c r="R71" t="n">
         <v>-0.333333333333333</v>
       </c>
-      <c r="R71" t="n">
+      <c r="S71" t="n">
         <v>6.0</v>
       </c>
-      <c r="S71" t="n">
+      <c r="T71" t="n">
         <v>5.0</v>
       </c>
-      <c r="T71" t="n">
+      <c r="U71" t="n">
         <v>1.22222222222222</v>
       </c>
-      <c r="U71" t="n">
+      <c r="V71" t="n">
         <v>0.472137554833479</v>
       </c>
-      <c r="V71" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X71" t="n">
         <v>-0.615384615384615</v>
       </c>
-      <c r="X71" t="n">
+      <c r="Y71" t="n">
         <v>-1.84615384615385</v>
       </c>
     </row>
@@ -5432,33 +5648,36 @@
         <v>0.0</v>
       </c>
       <c r="O72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P72" t="n">
         <v>0.956521739130435</v>
       </c>
-      <c r="P72" t="n">
+      <c r="Q72" t="n">
         <v>0.0539845758354759</v>
       </c>
-      <c r="Q72" t="n">
+      <c r="R72" t="n">
         <v>-0.577846007029127</v>
       </c>
-      <c r="R72" t="n">
+      <c r="S72" t="n">
         <v>5.0</v>
       </c>
-      <c r="S72" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T72" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U72" t="n">
         <v>1.17391304347826</v>
       </c>
-      <c r="U72" t="n">
+      <c r="V72" t="n">
         <v>0.494000918436402</v>
       </c>
-      <c r="V72" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X72" t="n">
         <v>-0.533333333333333</v>
       </c>
-      <c r="X72" t="n">
+      <c r="Y72" t="n">
         <v>-1.46666666666667</v>
       </c>
     </row>
@@ -5506,33 +5725,36 @@
         <v>6.0</v>
       </c>
       <c r="O73" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P73" t="n">
         <v>0.916666666666667</v>
       </c>
-      <c r="P73" t="n">
+      <c r="Q73" t="n">
         <v>0.0265639328173172</v>
       </c>
-      <c r="Q73" t="n">
+      <c r="R73" t="n">
         <v>-0.366839648157067</v>
       </c>
-      <c r="R73" t="n">
+      <c r="S73" t="n">
         <v>12.0</v>
       </c>
-      <c r="S73" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T73" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U73" t="n">
         <v>2.25</v>
       </c>
-      <c r="U73" t="n">
+      <c r="V73" t="n">
         <v>0.636996571565428</v>
       </c>
-      <c r="V73" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X73" t="n">
         <v>-0.111111111111111</v>
       </c>
-      <c r="X73" t="n">
+      <c r="Y73" t="n">
         <v>-0.333333333333333</v>
       </c>
     </row>
@@ -5580,33 +5802,36 @@
         <v>4.0</v>
       </c>
       <c r="O74" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P74" t="n">
         <v>0.8</v>
       </c>
-      <c r="P74" t="n">
+      <c r="Q74" t="n">
         <v>-0.25423810882824</v>
       </c>
-      <c r="Q74" t="n">
+      <c r="R74" t="n">
         <v>-0.43063512158279</v>
       </c>
-      <c r="R74" t="n">
+      <c r="S74" t="n">
         <v>7.0</v>
       </c>
-      <c r="S74" t="n">
-        <v>3.0</v>
-      </c>
       <c r="T74" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U74" t="n">
         <v>1.72</v>
       </c>
-      <c r="U74" t="n">
+      <c r="V74" t="n">
         <v>0.719583888690193</v>
       </c>
-      <c r="V74" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X74" t="n">
         <v>-0.294117647058824</v>
       </c>
-      <c r="X74" t="n">
+      <c r="Y74" t="n">
         <v>-0.882352941176471</v>
       </c>
     </row>
@@ -5654,33 +5879,36 @@
         <v>7.0</v>
       </c>
       <c r="O75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P75" t="n">
         <v>0.48</v>
       </c>
-      <c r="P75" t="n">
+      <c r="Q75" t="n">
         <v>0.111803398874989</v>
       </c>
-      <c r="Q75" t="n">
+      <c r="R75" t="n">
         <v>-0.250980340997319</v>
-      </c>
-      <c r="R75" t="n">
-        <v>5.0</v>
       </c>
       <c r="S75" t="n">
         <v>5.0</v>
       </c>
       <c r="T75" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U75" t="n">
         <v>1.08</v>
       </c>
-      <c r="U75" t="n">
+      <c r="V75" t="n">
         <v>0.374953032026901</v>
       </c>
-      <c r="V75" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X75" t="n">
         <v>-0.529411764705882</v>
       </c>
-      <c r="X75" t="n">
+      <c r="Y75" t="n">
         <v>-1.11764705882353</v>
       </c>
     </row>
@@ -5728,33 +5956,36 @@
         <v>9.0</v>
       </c>
       <c r="O76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P76" t="n">
         <v>0.19047619047619</v>
       </c>
-      <c r="P76" t="n">
+      <c r="Q76" t="n">
         <v>0.163921336633095</v>
       </c>
-      <c r="Q76" t="n">
+      <c r="R76" t="n">
         <v>-0.290197156988311</v>
-      </c>
-      <c r="R76" t="n">
-        <v>5.0</v>
       </c>
       <c r="S76" t="n">
         <v>5.0</v>
       </c>
       <c r="T76" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V76" t="n">
         <v>0.412063715098395</v>
       </c>
-      <c r="V76" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X76" t="n">
         <v>-0.352941176470588</v>
       </c>
-      <c r="X76" t="n">
+      <c r="Y76" t="n">
         <v>-0.352941176470588</v>
       </c>
     </row>
@@ -5802,33 +6033,36 @@
         <v>1.0</v>
       </c>
       <c r="O77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P77" t="n">
         <v>0.470588235294118</v>
       </c>
-      <c r="P77" t="e">
+      <c r="Q77" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Q77" t="n">
+      <c r="R77" t="n">
         <v>-0.305426706384646</v>
       </c>
-      <c r="R77" t="n">
-        <v>4.0</v>
-      </c>
       <c r="S77" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="T77" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U77" t="n">
         <v>1.29411764705882</v>
       </c>
-      <c r="U77" t="n">
+      <c r="V77" t="n">
         <v>0.646825396825397</v>
       </c>
-      <c r="V77" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X77" t="n">
         <v>-0.714285714285714</v>
       </c>
-      <c r="X77" t="n">
+      <c r="Y77" t="n">
         <v>-2.42857142857143</v>
       </c>
     </row>
@@ -5876,33 +6110,36 @@
         <v>0.0</v>
       </c>
       <c r="O78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P78" t="n">
         <v>0.625</v>
       </c>
-      <c r="P78" t="e">
+      <c r="Q78" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Q78" t="n">
+      <c r="R78" t="n">
         <v>-0.416125189288239</v>
       </c>
-      <c r="R78" t="n">
-        <v>2.0</v>
-      </c>
       <c r="S78" t="n">
         <v>2.0</v>
       </c>
       <c r="T78" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="U78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V78" t="n">
         <v>0.771666666666667</v>
       </c>
-      <c r="V78" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X78" t="n">
         <v>-1.0</v>
       </c>
-      <c r="X78" t="n">
+      <c r="Y78" t="n">
         <v>-3.0</v>
       </c>
     </row>
@@ -5950,33 +6187,36 @@
         <v>3.0</v>
       </c>
       <c r="O79" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P79" t="n">
         <v>0.875</v>
       </c>
-      <c r="P79" t="n">
+      <c r="Q79" t="n">
         <v>-0.163410517639485</v>
       </c>
-      <c r="Q79" t="n">
+      <c r="R79" t="n">
         <v>-0.466569474815843</v>
       </c>
-      <c r="R79" t="n">
-        <v>4.0</v>
-      </c>
       <c r="S79" t="n">
         <v>4.0</v>
       </c>
       <c r="T79" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="U79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V79" t="n">
         <v>0.651713812366171</v>
       </c>
-      <c r="V79" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X79" t="n">
         <v>-0.714285714285714</v>
       </c>
-      <c r="X79" t="n">
+      <c r="Y79" t="n">
         <v>-1.57142857142857</v>
       </c>
     </row>
@@ -6024,33 +6264,36 @@
         <v>0.0</v>
       </c>
       <c r="O80" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q80" t="n">
         <v>-0.083333333333333</v>
       </c>
-      <c r="Q80" t="n">
+      <c r="R80" t="n">
         <v>-0.584077985377742</v>
       </c>
-      <c r="R80" t="n">
-        <v>3.0</v>
-      </c>
       <c r="S80" t="n">
         <v>3.0</v>
       </c>
       <c r="T80" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="U80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V80" t="n">
         <v>0.79285175120773</v>
       </c>
-      <c r="V80" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X80" t="n">
         <v>-0.1</v>
       </c>
-      <c r="X80" t="n">
+      <c r="Y80" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -6098,33 +6341,36 @@
         <v>2.0</v>
       </c>
       <c r="O81" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q81" t="n">
         <v>-0.666666666666667</v>
       </c>
-      <c r="Q81" t="n">
+      <c r="R81" t="n">
         <v>-1.0</v>
       </c>
-      <c r="R81" t="n">
+      <c r="S81" t="n">
         <v>6.0</v>
       </c>
-      <c r="S81" t="n">
-        <v>2.0</v>
-      </c>
       <c r="T81" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U81" t="n">
         <v>2.3</v>
       </c>
-      <c r="U81" t="n">
-        <v>1.0</v>
-      </c>
       <c r="V81" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X81" t="n">
         <v>-0.272727272727273</v>
       </c>
-      <c r="X81" t="n">
+      <c r="Y81" t="n">
         <v>-0.636363636363636</v>
       </c>
     </row>
@@ -6172,33 +6418,36 @@
         <v>10.0</v>
       </c>
       <c r="O82" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="P82" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q82" t="n">
         <v>0.105263157894736</v>
       </c>
-      <c r="Q82" t="n">
+      <c r="R82" t="n">
         <v>-0.535682023486901</v>
       </c>
-      <c r="R82" t="n">
+      <c r="S82" t="n">
         <v>9.0</v>
       </c>
-      <c r="S82" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T82" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U82" t="n">
         <v>2.05882352941176</v>
       </c>
-      <c r="U82" t="n">
+      <c r="V82" t="n">
         <v>0.463845527665854</v>
       </c>
-      <c r="V82" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X82" t="n">
         <v>-0.230769230769231</v>
       </c>
-      <c r="X82" t="n">
+      <c r="Y82" t="n">
         <v>-0.307692307692308</v>
       </c>
     </row>
@@ -6246,33 +6495,36 @@
         <v>4.0</v>
       </c>
       <c r="O83" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="P83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q83" t="n">
         <v>-0.23008949665421</v>
       </c>
-      <c r="Q83" t="n">
+      <c r="R83" t="n">
         <v>-0.0230131845184914</v>
       </c>
-      <c r="R83" t="n">
+      <c r="S83" t="n">
         <v>8.0</v>
       </c>
-      <c r="S83" t="n">
-        <v>3.0</v>
-      </c>
       <c r="T83" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U83" t="n">
         <v>2.39130434782609</v>
       </c>
-      <c r="U83" t="n">
+      <c r="V83" t="n">
         <v>0.19404142039591</v>
       </c>
-      <c r="V83" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X83" t="n">
         <v>-0.583333333333333</v>
       </c>
-      <c r="X83" t="n">
+      <c r="Y83" t="n">
         <v>-1.25</v>
       </c>
     </row>
@@ -6320,33 +6572,36 @@
         <v>3.0</v>
       </c>
       <c r="O84" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="P84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q84" t="n">
         <v>-0.291111254869792</v>
       </c>
-      <c r="Q84" t="n">
+      <c r="R84" t="n">
         <v>-0.439671510095091</v>
       </c>
-      <c r="R84" t="n">
+      <c r="S84" t="n">
         <v>7.0</v>
       </c>
-      <c r="S84" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T84" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U84" t="n">
         <v>2.16666666666667</v>
       </c>
-      <c r="U84" t="n">
+      <c r="V84" t="n">
         <v>0.479585015824512</v>
       </c>
-      <c r="V84" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X84" t="n">
         <v>-0.444444444444444</v>
       </c>
-      <c r="X84" t="n">
+      <c r="Y84" t="n">
         <v>-1.33333333333333</v>
       </c>
     </row>
@@ -6394,33 +6649,36 @@
         <v>10.0</v>
       </c>
       <c r="O85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P85" t="n">
         <v>0.333333333333333</v>
       </c>
-      <c r="P85" t="n">
+      <c r="Q85" t="n">
         <v>0.0160464521806415</v>
       </c>
-      <c r="Q85" t="n">
+      <c r="R85" t="n">
         <v>-0.335142132142294</v>
       </c>
-      <c r="R85" t="n">
+      <c r="S85" t="n">
         <v>8.0</v>
       </c>
-      <c r="S85" t="n">
+      <c r="T85" t="n">
         <v>5.0</v>
       </c>
-      <c r="T85" t="n">
+      <c r="U85" t="n">
         <v>1.625</v>
       </c>
-      <c r="U85" t="n">
+      <c r="V85" t="n">
         <v>0.382805549942647</v>
       </c>
-      <c r="V85" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X85" t="n">
         <v>-0.533333333333333</v>
       </c>
-      <c r="X85" t="n">
+      <c r="Y85" t="n">
         <v>-1.0</v>
       </c>
     </row>
@@ -6468,33 +6726,36 @@
         <v>14.0</v>
       </c>
       <c r="O86" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P86" t="n">
         <v>0.230769230769231</v>
       </c>
-      <c r="P86" t="n">
+      <c r="Q86" t="n">
         <v>0.395687696466892</v>
       </c>
-      <c r="Q86" t="n">
+      <c r="R86" t="n">
         <v>-0.593479379957277</v>
       </c>
-      <c r="R86" t="n">
+      <c r="S86" t="n">
         <v>7.0</v>
       </c>
-      <c r="S86" t="n">
+      <c r="T86" t="n">
         <v>5.0</v>
       </c>
-      <c r="T86" t="n">
+      <c r="U86" t="n">
         <v>1.46153846153846</v>
       </c>
-      <c r="U86" t="n">
+      <c r="V86" t="n">
         <v>0.490070806319423</v>
       </c>
-      <c r="V86" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X86" t="n">
         <v>-0.588235294117647</v>
       </c>
-      <c r="X86" t="n">
+      <c r="Y86" t="n">
         <v>-1.0</v>
       </c>
     </row>
@@ -6542,33 +6803,36 @@
         <v>0.0</v>
       </c>
       <c r="O87" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P87" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q87" t="n">
         <v>0.747368421052631</v>
       </c>
-      <c r="Q87" t="n">
+      <c r="R87" t="n">
         <v>-0.389788293897883</v>
       </c>
-      <c r="R87" t="n">
-        <v>4.0</v>
-      </c>
       <c r="S87" t="n">
         <v>4.0</v>
       </c>
       <c r="T87" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="U87" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V87" t="n">
         <v>0.673840583993841</v>
       </c>
-      <c r="V87" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X87" t="n">
         <v>-0.454545454545455</v>
       </c>
-      <c r="X87" t="n">
+      <c r="Y87" t="n">
         <v>-1.45454545454545</v>
       </c>
     </row>
@@ -6616,33 +6880,36 @@
         <v>0.0</v>
       </c>
       <c r="O88" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P88" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q88" t="n">
         <v>0.614035087719299</v>
       </c>
-      <c r="Q88" t="n">
+      <c r="R88" t="n">
         <v>-0.152380952380952</v>
-      </c>
-      <c r="R88" t="n">
-        <v>6.0</v>
       </c>
       <c r="S88" t="n">
         <v>6.0</v>
       </c>
       <c r="T88" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="U88" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V88" t="n">
         <v>0.388956829918602</v>
       </c>
-      <c r="V88" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X88" t="n">
         <v>-0.636363636363636</v>
       </c>
-      <c r="X88" t="n">
+      <c r="Y88" t="n">
         <v>-1.63636363636364</v>
       </c>
     </row>
@@ -6690,33 +6957,36 @@
         <v>3.0</v>
       </c>
       <c r="O89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P89" t="n">
         <v>0.333333333333333</v>
       </c>
-      <c r="P89" t="n">
+      <c r="Q89" t="n">
         <v>-0.422235951603035</v>
       </c>
-      <c r="Q89" t="n">
+      <c r="R89" t="n">
         <v>-0.25</v>
       </c>
-      <c r="R89" t="n">
-        <v>3.0</v>
-      </c>
       <c r="S89" t="n">
         <v>3.0</v>
       </c>
       <c r="T89" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="U89" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V89" t="n">
         <v>0.365319872336126</v>
       </c>
-      <c r="V89" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X89" t="n">
         <v>-0.75</v>
       </c>
-      <c r="X89" t="n">
+      <c r="Y89" t="n">
         <v>-2.08333333333333</v>
       </c>
     </row>
@@ -6764,33 +7034,36 @@
         <v>2.0</v>
       </c>
       <c r="O90" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P90" t="n">
         <v>0.166666666666667</v>
       </c>
-      <c r="P90" t="n">
+      <c r="Q90" t="n">
         <v>0.0419590679148357</v>
       </c>
-      <c r="Q90" t="n">
+      <c r="R90" t="n">
         <v>-0.143125643519168</v>
       </c>
-      <c r="R90" t="n">
-        <v>4.0</v>
-      </c>
       <c r="S90" t="n">
         <v>4.0</v>
       </c>
       <c r="T90" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="U90" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V90" t="n">
         <v>0.436371632141027</v>
       </c>
-      <c r="V90" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X90" t="n">
         <v>-0.636363636363636</v>
       </c>
-      <c r="X90" t="n">
+      <c r="Y90" t="n">
         <v>-1.90909090909091</v>
       </c>
     </row>
@@ -6838,33 +7111,36 @@
         <v>0.0</v>
       </c>
       <c r="O91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P91" t="n">
         <v>0.689655172413793</v>
       </c>
-      <c r="P91" t="n">
+      <c r="Q91" t="n">
         <v>-0.552403337873069</v>
       </c>
-      <c r="Q91" t="n">
+      <c r="R91" t="n">
         <v>-0.245516272766218</v>
       </c>
-      <c r="R91" t="n">
-        <v>4.0</v>
-      </c>
       <c r="S91" t="n">
         <v>4.0</v>
       </c>
       <c r="T91" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="U91" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V91" t="n">
         <v>0.673803978112985</v>
       </c>
-      <c r="V91" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X91" t="n">
         <v>-0.125</v>
       </c>
-      <c r="X91" t="n">
+      <c r="Y91" t="n">
         <v>-0.375</v>
       </c>
     </row>
@@ -6912,33 +7188,36 @@
         <v>4.0</v>
       </c>
       <c r="O92" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P92" t="n">
         <v>0.571428571428571</v>
       </c>
-      <c r="P92" t="n">
+      <c r="Q92" t="n">
         <v>-0.190346746906723</v>
       </c>
-      <c r="Q92" t="n">
+      <c r="R92" t="n">
         <v>-0.133053721528047</v>
       </c>
-      <c r="R92" t="n">
+      <c r="S92" t="n">
         <v>7.0</v>
       </c>
-      <c r="S92" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T92" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="U92" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V92" t="n">
         <v>0.26793292972444</v>
       </c>
-      <c r="V92" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X92" t="n">
         <v>-0.692307692307692</v>
       </c>
-      <c r="X92" t="n">
+      <c r="Y92" t="n">
         <v>-1.53846153846154</v>
       </c>
     </row>
@@ -6986,33 +7265,36 @@
         <v>5.0</v>
       </c>
       <c r="O93" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P93" t="n">
         <v>0.5625</v>
       </c>
-      <c r="P93" t="n">
+      <c r="Q93" t="n">
         <v>0.280900323866795</v>
       </c>
-      <c r="Q93" t="n">
+      <c r="R93" t="n">
         <v>-0.160643249605664</v>
       </c>
-      <c r="R93" t="n">
+      <c r="S93" t="n">
         <v>11.0</v>
       </c>
-      <c r="S93" t="n">
+      <c r="T93" t="n">
         <v>5.0</v>
       </c>
-      <c r="T93" t="n">
+      <c r="U93" t="n">
         <v>2.4375</v>
       </c>
-      <c r="U93" t="n">
+      <c r="V93" t="n">
         <v>0.271319209773261</v>
       </c>
-      <c r="V93" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X93" t="n">
         <v>-0.294117647058824</v>
       </c>
-      <c r="X93" t="n">
+      <c r="Y93" t="n">
         <v>-0.647058823529412</v>
       </c>
     </row>
@@ -7060,33 +7342,36 @@
         <v>0.0</v>
       </c>
       <c r="O94" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P94" t="e">
+        <v>0.0</v>
+      </c>
+      <c r="P94" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q94" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Q94" t="n">
+      <c r="R94" t="n">
         <v>-1.0</v>
       </c>
-      <c r="R94" t="n">
-        <v>2.0</v>
-      </c>
       <c r="S94" t="n">
         <v>2.0</v>
       </c>
       <c r="T94" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="U94" t="n">
         <v>1.0</v>
       </c>
       <c r="V94" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W94" t="n">
         <v>0.0</v>
       </c>
       <c r="X94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y94" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -7134,33 +7419,36 @@
         <v>4.0</v>
       </c>
       <c r="O95" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P95" t="n">
         <v>0.980392156862745</v>
       </c>
-      <c r="P95" t="n">
+      <c r="Q95" t="n">
         <v>-0.198220715489648</v>
       </c>
-      <c r="Q95" t="n">
+      <c r="R95" t="n">
         <v>-0.473457405189175</v>
       </c>
-      <c r="R95" t="n">
+      <c r="S95" t="n">
         <v>10.0</v>
       </c>
-      <c r="S95" t="n">
+      <c r="T95" t="n">
         <v>6.0</v>
       </c>
-      <c r="T95" t="n">
+      <c r="U95" t="n">
         <v>1.29411764705882</v>
       </c>
-      <c r="U95" t="n">
+      <c r="V95" t="n">
         <v>0.375599414900706</v>
       </c>
-      <c r="V95" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X95" t="n">
         <v>0.0434782608695652</v>
       </c>
-      <c r="X95" t="n">
+      <c r="Y95" t="n">
         <v>0.217391304347826</v>
       </c>
     </row>
@@ -7208,33 +7496,36 @@
         <v>0.0</v>
       </c>
       <c r="O96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P96" t="n">
         <v>0.978723404255319</v>
       </c>
-      <c r="P96" t="n">
+      <c r="Q96" t="n">
         <v>-0.421848739495799</v>
       </c>
-      <c r="Q96" t="n">
+      <c r="R96" t="n">
         <v>-0.501558696959756</v>
       </c>
-      <c r="R96" t="n">
+      <c r="S96" t="n">
         <v>8.0</v>
       </c>
-      <c r="S96" t="n">
+      <c r="T96" t="n">
         <v>6.0</v>
       </c>
-      <c r="T96" t="n">
+      <c r="U96" t="n">
         <v>1.21276595744681</v>
       </c>
-      <c r="U96" t="n">
+      <c r="V96" t="n">
         <v>0.401929496073979</v>
       </c>
-      <c r="V96" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X96" t="n">
         <v>0.0454545454545455</v>
       </c>
-      <c r="X96" t="n">
+      <c r="Y96" t="n">
         <v>0.181818181818182</v>
       </c>
     </row>
@@ -7282,33 +7573,36 @@
         <v>2.0</v>
       </c>
       <c r="O97" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="P97" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q97" t="n">
         <v>-0.472868217054265</v>
       </c>
-      <c r="Q97" t="n">
+      <c r="R97" t="n">
         <v>0.0187793427230048</v>
-      </c>
-      <c r="R97" t="n">
-        <v>6.0</v>
       </c>
       <c r="S97" t="n">
         <v>6.0</v>
       </c>
       <c r="T97" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="U97" t="n">
         <v>1.15789473684211</v>
       </c>
-      <c r="U97" t="n">
+      <c r="V97" t="n">
         <v>0.31213309647943</v>
       </c>
-      <c r="V97" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X97" t="n">
         <v>-0.285714285714286</v>
       </c>
-      <c r="X97" t="n">
+      <c r="Y97" t="n">
         <v>-0.357142857142857</v>
       </c>
     </row>
@@ -7356,33 +7650,36 @@
         <v>2.0</v>
       </c>
       <c r="O98" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="P98" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q98" t="n">
         <v>-0.387755102040816</v>
       </c>
-      <c r="Q98" t="n">
+      <c r="R98" t="n">
         <v>0.0961145194274029</v>
-      </c>
-      <c r="R98" t="n">
-        <v>6.0</v>
       </c>
       <c r="S98" t="n">
         <v>6.0</v>
       </c>
       <c r="T98" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="U98" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V98" t="n">
         <v>0.291243620583455</v>
       </c>
-      <c r="V98" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X98" t="n">
         <v>-0.285714285714286</v>
       </c>
-      <c r="X98" t="n">
+      <c r="Y98" t="n">
         <v>-0.428571428571429</v>
       </c>
     </row>
@@ -7430,33 +7727,36 @@
         <v>13.0</v>
       </c>
       <c r="O99" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="P99" t="n">
         <v>0.75</v>
       </c>
-      <c r="P99" t="n">
+      <c r="Q99" t="n">
         <v>-0.302531690453766</v>
       </c>
-      <c r="Q99" t="n">
+      <c r="R99" t="n">
         <v>-0.614477922295302</v>
       </c>
-      <c r="R99" t="n">
+      <c r="S99" t="n">
         <v>7.0</v>
       </c>
-      <c r="S99" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T99" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U99" t="n">
         <v>1.83333333333333</v>
       </c>
-      <c r="U99" t="n">
+      <c r="V99" t="n">
         <v>0.708005678123843</v>
       </c>
-      <c r="V99" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X99" t="n">
         <v>0.0769230769230769</v>
       </c>
-      <c r="X99" t="n">
+      <c r="Y99" t="n">
         <v>0.307692307692308</v>
       </c>
     </row>
@@ -7504,33 +7804,36 @@
         <v>10.0</v>
       </c>
       <c r="O100" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P100" t="n">
         <v>0.823529411764706</v>
       </c>
-      <c r="P100" t="n">
+      <c r="Q100" t="n">
         <v>0.00271552710475784</v>
       </c>
-      <c r="Q100" t="n">
+      <c r="R100" t="n">
         <v>-0.116792796862392</v>
       </c>
-      <c r="R100" t="n">
-        <v>3.0</v>
-      </c>
       <c r="S100" t="n">
         <v>3.0</v>
       </c>
       <c r="T100" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U100" t="n">
         <v>1.09803921568627</v>
       </c>
-      <c r="U100" t="n">
+      <c r="V100" t="n">
         <v>0.326054011348129</v>
       </c>
-      <c r="V100" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X100" t="n">
         <v>-0.545454545454545</v>
       </c>
-      <c r="X100" t="n">
+      <c r="Y100" t="n">
         <v>-0.727272727272727</v>
       </c>
     </row>
@@ -7578,33 +7881,36 @@
         <v>0.0</v>
       </c>
       <c r="O101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P101" t="n">
         <v>0.4</v>
       </c>
-      <c r="P101" t="n">
+      <c r="Q101" t="n">
         <v>-0.111111111111113</v>
       </c>
-      <c r="Q101" t="n">
+      <c r="R101" t="n">
         <v>-0.592348877759093</v>
       </c>
-      <c r="R101" t="n">
+      <c r="S101" t="n">
         <v>5.0</v>
       </c>
-      <c r="S101" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T101" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U101" t="n">
         <v>1.4</v>
       </c>
-      <c r="U101" t="n">
+      <c r="V101" t="n">
         <v>0.529166666666667</v>
       </c>
-      <c r="V101" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X101" t="n">
         <v>-0.857142857142857</v>
       </c>
-      <c r="X101" t="n">
+      <c r="Y101" t="n">
         <v>-1.71428571428571</v>
       </c>
     </row>
@@ -7652,33 +7958,36 @@
         <v>9.0</v>
       </c>
       <c r="O102" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="P102" t="n">
         <v>0.75</v>
       </c>
-      <c r="P102" t="n">
+      <c r="Q102" t="n">
         <v>-0.28735632183908</v>
       </c>
-      <c r="Q102" t="n">
+      <c r="R102" t="n">
         <v>0.324617227032118</v>
       </c>
-      <c r="R102" t="n">
+      <c r="S102" t="n">
         <v>7.0</v>
       </c>
-      <c r="S102" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T102" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U102" t="n">
         <v>1.375</v>
       </c>
-      <c r="U102" t="n">
+      <c r="V102" t="n">
         <v>0.460768398268398</v>
       </c>
-      <c r="V102" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X102" t="n">
         <v>-0.375</v>
       </c>
-      <c r="X102" t="n">
+      <c r="Y102" t="n">
         <v>-0.5</v>
       </c>
     </row>
@@ -7726,33 +8035,36 @@
         <v>4.0</v>
       </c>
       <c r="O103" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P103" t="n">
         <v>0.518518518518518</v>
       </c>
-      <c r="P103" t="n">
+      <c r="Q103" t="n">
         <v>0.326308307962285</v>
       </c>
-      <c r="Q103" t="n">
+      <c r="R103" t="n">
         <v>-0.0856987316279074</v>
       </c>
-      <c r="R103" t="n">
+      <c r="S103" t="n">
         <v>8.0</v>
       </c>
-      <c r="S103" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T103" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U103" t="n">
         <v>1.55555555555556</v>
       </c>
-      <c r="U103" t="n">
+      <c r="V103" t="n">
         <v>0.20122358924498</v>
       </c>
-      <c r="V103" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W103" t="n">
         <v>0.0</v>
       </c>
       <c r="X103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y103" t="n">
         <v>-0.0769230769230769</v>
       </c>
     </row>
@@ -7800,33 +8112,36 @@
         <v>2.0</v>
       </c>
       <c r="O104" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P104" t="n">
         <v>0.444444444444444</v>
       </c>
-      <c r="P104" t="n">
+      <c r="Q104" t="n">
         <v>0.0783429440246304</v>
       </c>
-      <c r="Q104" t="n">
+      <c r="R104" t="n">
         <v>0.00452308137657475</v>
       </c>
-      <c r="R104" t="n">
+      <c r="S104" t="n">
         <v>6.0</v>
       </c>
-      <c r="S104" t="n">
+      <c r="T104" t="n">
         <v>5.0</v>
       </c>
-      <c r="T104" t="n">
+      <c r="U104" t="n">
         <v>1.25</v>
       </c>
-      <c r="U104" t="n">
+      <c r="V104" t="n">
         <v>0.24637481505969</v>
       </c>
-      <c r="V104" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W104" t="n">
         <v>0.0</v>
       </c>
       <c r="X104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y104" t="n">
         <v>0.235294117647059</v>
       </c>
     </row>
@@ -7874,33 +8189,36 @@
         <v>8.0</v>
       </c>
       <c r="O105" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P105" t="n">
         <v>0.571428571428571</v>
       </c>
-      <c r="P105" t="n">
+      <c r="Q105" t="n">
         <v>-0.0446927653274109</v>
       </c>
-      <c r="Q105" t="n">
+      <c r="R105" t="n">
         <v>-0.107736749362394</v>
       </c>
-      <c r="R105" t="n">
+      <c r="S105" t="n">
         <v>6.0</v>
       </c>
-      <c r="S105" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T105" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U105" t="n">
         <v>1.95918367346939</v>
       </c>
-      <c r="U105" t="n">
+      <c r="V105" t="n">
         <v>0.422232825191276</v>
       </c>
-      <c r="V105" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X105" t="n">
         <v>-0.3125</v>
       </c>
-      <c r="X105" t="n">
+      <c r="Y105" t="n">
         <v>-0.625</v>
       </c>
     </row>
@@ -7948,33 +8266,36 @@
         <v>9.0</v>
       </c>
       <c r="O106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P106" t="n">
         <v>0.478260869565217</v>
       </c>
-      <c r="P106" t="n">
+      <c r="Q106" t="n">
         <v>-0.606508491254799</v>
       </c>
-      <c r="Q106" t="n">
+      <c r="R106" t="n">
         <v>0.0069046788024232</v>
       </c>
-      <c r="R106" t="n">
+      <c r="S106" t="n">
         <v>9.0</v>
       </c>
-      <c r="S106" t="n">
+      <c r="T106" t="n">
         <v>5.0</v>
       </c>
-      <c r="T106" t="n">
+      <c r="U106" t="n">
         <v>1.82608695652174</v>
       </c>
-      <c r="U106" t="n">
+      <c r="V106" t="n">
         <v>0.352186114053055</v>
       </c>
-      <c r="V106" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X106" t="n">
         <v>-0.363636363636364</v>
       </c>
-      <c r="X106" t="n">
+      <c r="Y106" t="n">
         <v>-0.454545454545455</v>
       </c>
     </row>
@@ -8022,33 +8343,36 @@
         <v>0.0</v>
       </c>
       <c r="O107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P107" t="n">
         <v>0.266666666666667</v>
       </c>
-      <c r="P107" t="n">
+      <c r="Q107" t="n">
         <v>0.244051487450183</v>
       </c>
-      <c r="Q107" t="n">
+      <c r="R107" t="n">
         <v>-0.549775143965986</v>
       </c>
-      <c r="R107" t="n">
+      <c r="S107" t="n">
         <v>8.0</v>
       </c>
-      <c r="S107" t="n">
-        <v>3.0</v>
-      </c>
       <c r="T107" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U107" t="n">
         <v>1.36666666666667</v>
       </c>
-      <c r="U107" t="n">
+      <c r="V107" t="n">
         <v>0.601089702429415</v>
       </c>
-      <c r="V107" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X107" t="n">
         <v>-0.846153846153846</v>
       </c>
-      <c r="X107" t="n">
+      <c r="Y107" t="n">
         <v>-2.38461538461538</v>
       </c>
     </row>
@@ -8096,33 +8420,36 @@
         <v>0.0</v>
       </c>
       <c r="O108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P108" t="n">
         <v>0.8</v>
       </c>
-      <c r="P108" t="e">
+      <c r="Q108" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Q108" t="n">
+      <c r="R108" t="n">
         <v>-0.192640163938901</v>
       </c>
-      <c r="R108" t="n">
+      <c r="S108" t="n">
         <v>5.0</v>
       </c>
-      <c r="S108" t="n">
-        <v>3.0</v>
-      </c>
       <c r="T108" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U108" t="n">
         <v>1.9</v>
       </c>
-      <c r="U108" t="n">
+      <c r="V108" t="n">
         <v>0.442175159408289</v>
       </c>
-      <c r="V108" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X108" t="n">
         <v>-1.0</v>
       </c>
-      <c r="X108" t="n">
+      <c r="Y108" t="n">
         <v>-2.23076923076923</v>
       </c>
     </row>
@@ -8170,33 +8497,36 @@
         <v>12.0</v>
       </c>
       <c r="O109" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="P109" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q109" t="n">
         <v>0.267399267399267</v>
       </c>
-      <c r="Q109" t="n">
+      <c r="R109" t="n">
         <v>-0.340425531914894</v>
       </c>
-      <c r="R109" t="n">
-        <v>4.0</v>
-      </c>
       <c r="S109" t="n">
         <v>4.0</v>
       </c>
       <c r="T109" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U109" t="n">
         <v>1.35714285714286</v>
       </c>
-      <c r="U109" t="n">
+      <c r="V109" t="n">
         <v>0.378032666488933</v>
       </c>
-      <c r="V109" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X109" t="n">
         <v>0.0666666666666667</v>
       </c>
-      <c r="X109" t="n">
+      <c r="Y109" t="n">
         <v>0.333333333333333</v>
       </c>
     </row>
@@ -8244,33 +8574,36 @@
         <v>6.0</v>
       </c>
       <c r="O110" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P110" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q110" t="n">
         <v>0.00678593460826612</v>
       </c>
-      <c r="Q110" t="n">
+      <c r="R110" t="n">
         <v>-0.194710006373486</v>
       </c>
-      <c r="R110" t="n">
+      <c r="S110" t="n">
         <v>5.0</v>
       </c>
-      <c r="S110" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T110" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U110" t="n">
         <v>1.26086956521739</v>
       </c>
-      <c r="U110" t="n">
+      <c r="V110" t="n">
         <v>0.603840755641693</v>
       </c>
-      <c r="V110" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X110" t="n">
         <v>0.142857142857143</v>
       </c>
-      <c r="X110" t="n">
+      <c r="Y110" t="n">
         <v>0.285714285714286</v>
       </c>
     </row>
@@ -8318,33 +8651,36 @@
         <v>4.0</v>
       </c>
       <c r="O111" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P111" t="n">
         <v>0.930232558139535</v>
       </c>
-      <c r="P111" t="n">
+      <c r="Q111" t="n">
         <v>-0.431442226309511</v>
       </c>
-      <c r="Q111" t="n">
+      <c r="R111" t="n">
         <v>-0.606713728623844</v>
       </c>
-      <c r="R111" t="n">
+      <c r="S111" t="n">
         <v>6.0</v>
       </c>
-      <c r="S111" t="n">
+      <c r="T111" t="n">
         <v>5.0</v>
       </c>
-      <c r="T111" t="n">
+      <c r="U111" t="n">
         <v>1.32558139534884</v>
       </c>
-      <c r="U111" t="n">
+      <c r="V111" t="n">
         <v>0.202095561920417</v>
       </c>
-      <c r="V111" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X111" t="n">
         <v>-0.125</v>
       </c>
-      <c r="X111" t="n">
+      <c r="Y111" t="n">
         <v>-0.125</v>
       </c>
     </row>
@@ -8392,33 +8728,36 @@
         <v>6.0</v>
       </c>
       <c r="O112" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="P112" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q112" t="n">
         <v>0.136363636363635</v>
       </c>
-      <c r="Q112" t="n">
+      <c r="R112" t="n">
         <v>-0.499319727891157</v>
       </c>
-      <c r="R112" t="n">
+      <c r="S112" t="n">
         <v>5.0</v>
       </c>
-      <c r="S112" t="n">
-        <v>3.0</v>
-      </c>
       <c r="T112" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U112" t="n">
         <v>1.36842105263158</v>
       </c>
-      <c r="U112" t="n">
+      <c r="V112" t="n">
         <v>0.221727307398932</v>
       </c>
-      <c r="V112" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X112" t="n">
         <v>-0.5</v>
       </c>
-      <c r="X112" t="n">
+      <c r="Y112" t="n">
         <v>-1.16666666666667</v>
       </c>
     </row>
@@ -8466,33 +8805,36 @@
         <v>1.0</v>
       </c>
       <c r="O113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P113" t="n">
         <v>0.333333333333333</v>
       </c>
-      <c r="P113" t="n">
+      <c r="Q113" t="n">
         <v>-0.248069469178417</v>
       </c>
-      <c r="Q113" t="n">
+      <c r="R113" t="n">
         <v>-0.149403576166799</v>
       </c>
-      <c r="R113" t="n">
+      <c r="S113" t="n">
         <v>12.0</v>
       </c>
-      <c r="S113" t="n">
+      <c r="T113" t="n">
         <v>5.0</v>
       </c>
-      <c r="T113" t="n">
+      <c r="U113" t="n">
         <v>1.94444444444444</v>
       </c>
-      <c r="U113" t="n">
+      <c r="V113" t="n">
         <v>0.352330058060893</v>
       </c>
-      <c r="V113" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X113" t="n">
         <v>-0.357142857142857</v>
       </c>
-      <c r="X113" t="n">
+      <c r="Y113" t="n">
         <v>-1.0</v>
       </c>
     </row>
@@ -8540,33 +8882,36 @@
         <v>0.0</v>
       </c>
       <c r="O114" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P114" t="n">
         <v>0.5</v>
       </c>
-      <c r="P114" t="n">
+      <c r="Q114" t="n">
         <v>-0.562253530231749</v>
       </c>
-      <c r="Q114" t="n">
+      <c r="R114" t="n">
         <v>-0.278321907148955</v>
       </c>
-      <c r="R114" t="n">
+      <c r="S114" t="n">
         <v>13.0</v>
       </c>
-      <c r="S114" t="n">
+      <c r="T114" t="n">
         <v>6.0</v>
       </c>
-      <c r="T114" t="n">
+      <c r="U114" t="n">
         <v>1.65</v>
       </c>
-      <c r="U114" t="n">
+      <c r="V114" t="n">
         <v>0.394152336912058</v>
       </c>
-      <c r="V114" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W114" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X114" t="n">
         <v>-0.333333333333333</v>
       </c>
-      <c r="X114" t="n">
+      <c r="Y114" t="n">
         <v>-0.866666666666667</v>
       </c>
     </row>
@@ -8614,33 +8959,36 @@
         <v>0.0</v>
       </c>
       <c r="O115" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P115" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q115" t="n">
         <v>-0.411764705882354</v>
       </c>
-      <c r="Q115" t="n">
+      <c r="R115" t="n">
         <v>-0.505226480836237</v>
       </c>
-      <c r="R115" t="n">
+      <c r="S115" t="n">
         <v>8.0</v>
       </c>
-      <c r="S115" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T115" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U115" t="n">
         <v>1.58333333333333</v>
       </c>
-      <c r="U115" t="n">
+      <c r="V115" t="n">
         <v>0.402353294677773</v>
       </c>
-      <c r="V115" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X115" t="n">
         <v>-0.636363636363636</v>
       </c>
-      <c r="X115" t="n">
+      <c r="Y115" t="n">
         <v>-1.09090909090909</v>
       </c>
     </row>
@@ -8688,33 +9036,36 @@
         <v>5.0</v>
       </c>
       <c r="O116" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P116" t="n">
         <v>0.72</v>
       </c>
-      <c r="P116" t="n">
+      <c r="Q116" t="n">
         <v>0.217430588383507</v>
       </c>
-      <c r="Q116" t="n">
+      <c r="R116" t="n">
         <v>-0.752911887455987</v>
       </c>
-      <c r="R116" t="n">
+      <c r="S116" t="n">
         <v>6.0</v>
       </c>
-      <c r="S116" t="n">
-        <v>3.0</v>
-      </c>
       <c r="T116" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U116" t="n">
         <v>1.84</v>
       </c>
-      <c r="U116" t="n">
+      <c r="V116" t="n">
         <v>0.483800739928191</v>
       </c>
-      <c r="V116" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X116" t="n">
         <v>-0.636363636363636</v>
       </c>
-      <c r="X116" t="n">
+      <c r="Y116" t="n">
         <v>-1.36363636363636</v>
       </c>
     </row>
@@ -8762,33 +9113,36 @@
         <v>5.0</v>
       </c>
       <c r="O117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P117" t="n">
         <v>0.740740740740741</v>
       </c>
-      <c r="P117" t="n">
+      <c r="Q117" t="n">
         <v>-0.331788150419403</v>
       </c>
-      <c r="Q117" t="n">
+      <c r="R117" t="n">
         <v>-0.502807322146956</v>
       </c>
-      <c r="R117" t="n">
+      <c r="S117" t="n">
         <v>8.0</v>
       </c>
-      <c r="S117" t="n">
+      <c r="T117" t="n">
         <v>5.0</v>
       </c>
-      <c r="T117" t="n">
+      <c r="U117" t="n">
         <v>1.22222222222222</v>
       </c>
-      <c r="U117" t="n">
+      <c r="V117" t="n">
         <v>0.471534842197512</v>
       </c>
-      <c r="V117" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X117" t="n">
         <v>-0.285714285714286</v>
       </c>
-      <c r="X117" t="n">
+      <c r="Y117" t="n">
         <v>-0.928571428571429</v>
       </c>
     </row>
@@ -8836,33 +9190,36 @@
         <v>6.0</v>
       </c>
       <c r="O118" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P118" t="n">
         <v>0.333333333333333</v>
       </c>
-      <c r="P118" t="n">
+      <c r="Q118" t="n">
         <v>0.159504067405578</v>
       </c>
-      <c r="Q118" t="n">
+      <c r="R118" t="n">
         <v>-0.560544294110981</v>
       </c>
-      <c r="R118" t="n">
-        <v>4.0</v>
-      </c>
       <c r="S118" t="n">
         <v>4.0</v>
       </c>
       <c r="T118" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="U118" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V118" t="n">
         <v>0.216535738069351</v>
       </c>
-      <c r="V118" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X118" t="n">
         <v>-0.125</v>
       </c>
-      <c r="X118" t="n">
+      <c r="Y118" t="n">
         <v>-0.625</v>
       </c>
     </row>
@@ -8910,33 +9267,36 @@
         <v>0.0</v>
       </c>
       <c r="O119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P119" t="n">
         <v>0.620689655172414</v>
       </c>
-      <c r="P119" t="n">
+      <c r="Q119" t="n">
         <v>-0.132940018808799</v>
       </c>
-      <c r="Q119" t="n">
+      <c r="R119" t="n">
         <v>-0.515941125156101</v>
       </c>
-      <c r="R119" t="n">
+      <c r="S119" t="n">
         <v>9.0</v>
       </c>
-      <c r="S119" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T119" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U119" t="n">
         <v>2.27586206896552</v>
       </c>
-      <c r="U119" t="n">
+      <c r="V119" t="n">
         <v>0.250653998229736</v>
       </c>
-      <c r="V119" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X119" t="n">
         <v>-0.533333333333333</v>
       </c>
-      <c r="X119" t="n">
+      <c r="Y119" t="n">
         <v>-1.06666666666667</v>
       </c>
     </row>
@@ -8984,33 +9344,36 @@
         <v>0.0</v>
       </c>
       <c r="O120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P120" t="n">
         <v>0.514285714285714</v>
       </c>
-      <c r="P120" t="n">
+      <c r="Q120" t="n">
         <v>-0.448427203146441</v>
       </c>
-      <c r="Q120" t="n">
+      <c r="R120" t="n">
         <v>-0.550254812359226</v>
       </c>
-      <c r="R120" t="n">
+      <c r="S120" t="n">
         <v>8.0</v>
       </c>
-      <c r="S120" t="n">
+      <c r="T120" t="n">
         <v>6.0</v>
       </c>
-      <c r="T120" t="n">
+      <c r="U120" t="n">
         <v>1.28571428571429</v>
       </c>
-      <c r="U120" t="n">
+      <c r="V120" t="n">
         <v>0.328685848035526</v>
       </c>
-      <c r="V120" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X120" t="n">
         <v>-0.578947368421053</v>
       </c>
-      <c r="X120" t="n">
+      <c r="Y120" t="n">
         <v>-1.21052631578947</v>
       </c>
     </row>
@@ -9058,33 +9421,36 @@
         <v>2.0</v>
       </c>
       <c r="O121" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P121" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q121" t="n">
         <v>-0.20863309352518</v>
       </c>
-      <c r="Q121" t="n">
+      <c r="R121" t="n">
         <v>-0.170731707317073</v>
       </c>
-      <c r="R121" t="n">
+      <c r="S121" t="n">
         <v>18.0</v>
       </c>
-      <c r="S121" t="n">
+      <c r="T121" t="n">
         <v>8.0</v>
       </c>
-      <c r="T121" t="n">
+      <c r="U121" t="n">
         <v>2.35</v>
       </c>
-      <c r="U121" t="n">
+      <c r="V121" t="n">
         <v>0.311102393082107</v>
       </c>
-      <c r="V121" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W121" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X121" t="n">
         <v>-0.0555555555555556</v>
       </c>
-      <c r="X121" t="n">
+      <c r="Y121" t="n">
         <v>-0.222222222222222</v>
       </c>
     </row>
@@ -9132,33 +9498,36 @@
         <v>4.0</v>
       </c>
       <c r="O122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P122" t="n">
         <v>0.826086956521739</v>
       </c>
-      <c r="P122" t="n">
+      <c r="Q122" t="n">
         <v>0.158885940327972</v>
       </c>
-      <c r="Q122" t="n">
+      <c r="R122" t="n">
         <v>-0.522872320301464</v>
       </c>
-      <c r="R122" t="n">
+      <c r="S122" t="n">
         <v>11.0</v>
       </c>
-      <c r="S122" t="n">
+      <c r="T122" t="n">
         <v>7.0</v>
       </c>
-      <c r="T122" t="n">
+      <c r="U122" t="n">
         <v>1.69565217391304</v>
       </c>
-      <c r="U122" t="n">
+      <c r="V122" t="n">
         <v>0.255166139352812</v>
       </c>
-      <c r="V122" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X122" t="n">
         <v>0.19047619047619</v>
       </c>
-      <c r="X122" t="n">
+      <c r="Y122" t="n">
         <v>0.428571428571429</v>
       </c>
     </row>
@@ -9206,33 +9575,36 @@
         <v>2.0</v>
       </c>
       <c r="O123" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P123" t="n">
         <v>0.866666666666667</v>
       </c>
-      <c r="P123" t="n">
+      <c r="Q123" t="n">
         <v>-0.183597018408631</v>
       </c>
-      <c r="Q123" t="n">
+      <c r="R123" t="n">
         <v>-0.305933484649365</v>
       </c>
-      <c r="R123" t="n">
+      <c r="S123" t="n">
         <v>6.0</v>
       </c>
-      <c r="S123" t="n">
+      <c r="T123" t="n">
         <v>5.0</v>
       </c>
-      <c r="T123" t="n">
+      <c r="U123" t="n">
         <v>1.16666666666667</v>
       </c>
-      <c r="U123" t="n">
+      <c r="V123" t="n">
         <v>0.413906117981414</v>
       </c>
-      <c r="V123" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W123" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X123" t="n">
         <v>-0.333333333333333</v>
       </c>
-      <c r="X123" t="n">
+      <c r="Y123" t="n">
         <v>-0.533333333333333</v>
       </c>
     </row>
@@ -9280,33 +9652,36 @@
         <v>4.0</v>
       </c>
       <c r="O124" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P124" t="n">
         <v>0.842105263157895</v>
       </c>
-      <c r="P124" t="n">
+      <c r="Q124" t="n">
         <v>-0.204980015422698</v>
       </c>
-      <c r="Q124" t="n">
+      <c r="R124" t="n">
         <v>-0.105848593228307</v>
       </c>
-      <c r="R124" t="n">
+      <c r="S124" t="n">
         <v>7.0</v>
       </c>
-      <c r="S124" t="n">
+      <c r="T124" t="n">
         <v>5.0</v>
       </c>
-      <c r="T124" t="n">
+      <c r="U124" t="n">
         <v>1.21052631578947</v>
       </c>
-      <c r="U124" t="n">
+      <c r="V124" t="n">
         <v>0.448972342543315</v>
       </c>
-      <c r="V124" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W124" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X124" t="n">
         <v>-0.909090909090909</v>
       </c>
-      <c r="X124" t="n">
+      <c r="Y124" t="n">
         <v>-1.90909090909091</v>
       </c>
     </row>
@@ -9354,33 +9729,36 @@
         <v>0.0</v>
       </c>
       <c r="O125" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P125" t="n">
         <v>0.903225806451613</v>
       </c>
-      <c r="P125" t="n">
+      <c r="Q125" t="n">
         <v>-0.0619523611462784</v>
       </c>
-      <c r="Q125" t="n">
+      <c r="R125" t="n">
         <v>-0.537908334984109</v>
       </c>
-      <c r="R125" t="n">
+      <c r="S125" t="n">
         <v>5.0</v>
       </c>
-      <c r="S125" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T125" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U125" t="n">
         <v>1.06451612903226</v>
       </c>
-      <c r="U125" t="n">
+      <c r="V125" t="n">
         <v>0.405187816395553</v>
       </c>
-      <c r="V125" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W125" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X125" t="n">
         <v>-0.384615384615385</v>
       </c>
-      <c r="X125" t="n">
+      <c r="Y125" t="n">
         <v>-1.15384615384615</v>
       </c>
     </row>
@@ -9428,33 +9806,36 @@
         <v>0.0</v>
       </c>
       <c r="O126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P126" t="n">
         <v>0.742857142857143</v>
       </c>
-      <c r="P126" t="n">
+      <c r="Q126" t="n">
         <v>-0.108122608815004</v>
       </c>
-      <c r="Q126" t="n">
+      <c r="R126" t="n">
         <v>-0.0985948226747557</v>
       </c>
-      <c r="R126" t="n">
+      <c r="S126" t="n">
         <v>6.0</v>
       </c>
-      <c r="S126" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T126" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U126" t="n">
         <v>1.05714285714286</v>
       </c>
-      <c r="U126" t="n">
+      <c r="V126" t="n">
         <v>0.460366962144937</v>
       </c>
-      <c r="V126" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X126" t="n">
         <v>-0.1875</v>
       </c>
-      <c r="X126" t="n">
+      <c r="Y126" t="n">
         <v>0.0625</v>
       </c>
     </row>
@@ -9502,33 +9883,36 @@
         <v>3.0</v>
       </c>
       <c r="O127" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P127" t="n">
         <v>0.303030303030303</v>
       </c>
-      <c r="P127" t="n">
+      <c r="Q127" t="n">
         <v>0.715762021160641</v>
       </c>
-      <c r="Q127" t="n">
+      <c r="R127" t="n">
         <v>-0.117132068146046</v>
       </c>
-      <c r="R127" t="n">
+      <c r="S127" t="n">
         <v>8.0</v>
       </c>
-      <c r="S127" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T127" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U127" t="n">
         <v>1.60606060606061</v>
       </c>
-      <c r="U127" t="n">
+      <c r="V127" t="n">
         <v>0.561003773066927</v>
       </c>
-      <c r="V127" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W127" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X127" t="n">
         <v>-0.5</v>
       </c>
-      <c r="X127" t="n">
+      <c r="Y127" t="n">
         <v>-0.95</v>
       </c>
     </row>
@@ -9576,33 +9960,36 @@
         <v>3.0</v>
       </c>
       <c r="O128" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P128" t="n">
         <v>0.41025641025641</v>
       </c>
-      <c r="P128" t="n">
+      <c r="Q128" t="n">
         <v>-0.0434065229713002</v>
       </c>
-      <c r="Q128" t="n">
+      <c r="R128" t="n">
         <v>-0.157643198119277</v>
-      </c>
-      <c r="R128" t="n">
-        <v>5.0</v>
       </c>
       <c r="S128" t="n">
         <v>5.0</v>
       </c>
       <c r="T128" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U128" t="n">
         <v>1.07692307692308</v>
       </c>
-      <c r="U128" t="n">
+      <c r="V128" t="n">
         <v>0.467993298632181</v>
       </c>
-      <c r="V128" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W128" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X128" t="n">
         <v>-0.470588235294118</v>
       </c>
-      <c r="X128" t="n">
+      <c r="Y128" t="n">
         <v>-0.882352941176471</v>
       </c>
     </row>
@@ -9650,33 +10037,36 @@
         <v>6.0</v>
       </c>
       <c r="O129" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P129" t="n">
         <v>0.785714285714286</v>
       </c>
-      <c r="P129" t="n">
+      <c r="Q129" t="n">
         <v>-0.450584599953223</v>
       </c>
-      <c r="Q129" t="n">
+      <c r="R129" t="n">
         <v>-0.286888903477857</v>
       </c>
-      <c r="R129" t="n">
+      <c r="S129" t="n">
         <v>7.0</v>
       </c>
-      <c r="S129" t="n">
-        <v>4.0</v>
-      </c>
       <c r="T129" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U129" t="n">
         <v>1.35714285714286</v>
       </c>
-      <c r="U129" t="n">
+      <c r="V129" t="n">
         <v>0.609192017977515</v>
       </c>
-      <c r="V129" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W129" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X129" t="n">
         <v>-0.230769230769231</v>
       </c>
-      <c r="X129" t="n">
+      <c r="Y129" t="n">
         <v>-0.461538461538462</v>
       </c>
     </row>
@@ -9724,33 +10114,36 @@
         <v>0.0</v>
       </c>
       <c r="O130" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P130" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q130" t="n">
         <v>-0.110112359550562</v>
       </c>
-      <c r="Q130" t="n">
+      <c r="R130" t="n">
         <v>-0.594666666666667</v>
       </c>
-      <c r="R130" t="n">
-        <v>2.0</v>
-      </c>
       <c r="S130" t="n">
         <v>2.0</v>
       </c>
       <c r="T130" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="U130" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V130" t="n">
         <v>0.936458333333334</v>
       </c>
-      <c r="V130" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W130" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X130" t="n">
         <v>0.1</v>
       </c>
-      <c r="X130" t="n">
+      <c r="Y130" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -9798,33 +10191,36 @@
         <v>20.0</v>
       </c>
       <c r="O131" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P131" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q131" t="n">
         <v>0.272727272727273</v>
       </c>
-      <c r="Q131" t="n">
+      <c r="R131" t="n">
         <v>0.0206185567010308</v>
-      </c>
-      <c r="R131" t="n">
-        <v>6.0</v>
       </c>
       <c r="S131" t="n">
         <v>6.0</v>
       </c>
       <c r="T131" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="U131" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V131" t="n">
         <v>0.422307539536955</v>
       </c>
-      <c r="V131" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W131" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X131" t="n">
         <v>-0.210526315789474</v>
       </c>
-      <c r="X131" t="n">
+      <c r="Y131" t="n">
         <v>-0.526315789473684</v>
       </c>
     </row>
@@ -9872,33 +10268,36 @@
         <v>12.0</v>
       </c>
       <c r="O132" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P132" t="n">
         <v>0.709677419354839</v>
       </c>
-      <c r="P132" t="n">
+      <c r="Q132" t="n">
         <v>-0.0672232191453812</v>
       </c>
-      <c r="Q132" t="n">
+      <c r="R132" t="n">
         <v>-0.464952495603549</v>
       </c>
-      <c r="R132" t="n">
+      <c r="S132" t="n">
         <v>5.0</v>
       </c>
-      <c r="S132" t="n">
-        <v>3.0</v>
-      </c>
       <c r="T132" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U132" t="n">
         <v>1.09677419354839</v>
       </c>
-      <c r="U132" t="n">
+      <c r="V132" t="n">
         <v>0.456943697126253</v>
       </c>
-      <c r="V132" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W132" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X132" t="n">
         <v>-0.307692307692308</v>
       </c>
-      <c r="X132" t="n">
+      <c r="Y132" t="n">
         <v>-0.846153846153846</v>
       </c>
     </row>
@@ -9946,33 +10345,36 @@
         <v>7.0</v>
       </c>
       <c r="O133" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P133" t="n">
         <v>0.871794871794872</v>
       </c>
-      <c r="P133" t="n">
+      <c r="Q133" t="n">
         <v>-0.251141505974415</v>
       </c>
-      <c r="Q133" t="n">
+      <c r="R133" t="n">
         <v>-0.322601076472367</v>
       </c>
-      <c r="R133" t="n">
-        <v>4.0</v>
-      </c>
       <c r="S133" t="n">
         <v>4.0</v>
       </c>
       <c r="T133" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="U133" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V133" t="n">
         <v>0.510014254697208</v>
       </c>
-      <c r="V133" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W133" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X133" t="n">
         <v>-0.428571428571429</v>
       </c>
-      <c r="X133" t="n">
+      <c r="Y133" t="n">
         <v>-0.428571428571429</v>
       </c>
     </row>
@@ -10020,33 +10422,36 @@
         <v>0.0</v>
       </c>
       <c r="O134" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P134" t="n">
         <v>0.727272727272727</v>
       </c>
-      <c r="P134" t="n">
+      <c r="Q134" t="n">
         <v>-0.047619047619049</v>
       </c>
-      <c r="Q134" t="n">
+      <c r="R134" t="n">
         <v>-0.0750943503562055</v>
       </c>
-      <c r="R134" t="n">
-        <v>3.0</v>
-      </c>
       <c r="S134" t="n">
         <v>3.0</v>
       </c>
       <c r="T134" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U134" t="n">
         <v>1.09090909090909</v>
       </c>
-      <c r="U134" t="n">
+      <c r="V134" t="n">
         <v>0.543935727666443</v>
       </c>
-      <c r="V134" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W134" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X134" t="n">
         <v>-0.933333333333333</v>
       </c>
-      <c r="X134" t="n">
+      <c r="Y134" t="n">
         <v>-2.26666666666667</v>
       </c>
     </row>
@@ -10094,33 +10499,36 @@
         <v>0.0</v>
       </c>
       <c r="O135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P135" t="n">
         <v>0.695652173913043</v>
       </c>
-      <c r="P135" t="n">
+      <c r="Q135" t="n">
         <v>0.170293284431391</v>
       </c>
-      <c r="Q135" t="n">
+      <c r="R135" t="n">
         <v>-0.226774013475339</v>
       </c>
-      <c r="R135" t="n">
-        <v>4.0</v>
-      </c>
       <c r="S135" t="n">
         <v>4.0</v>
       </c>
       <c r="T135" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="U135" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V135" t="n">
         <v>0.498173405171452</v>
       </c>
-      <c r="V135" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X135" t="n">
         <v>-0.705882352941177</v>
       </c>
-      <c r="X135" t="n">
+      <c r="Y135" t="n">
         <v>-1.70588235294118</v>
       </c>
     </row>
@@ -10168,33 +10576,36 @@
         <v>1.0</v>
       </c>
       <c r="O136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P136" t="n">
         <v>0.588235294117647</v>
       </c>
-      <c r="P136" t="e">
+      <c r="Q136" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Q136" t="n">
+      <c r="R136" t="n">
         <v>-0.163416339834314</v>
       </c>
-      <c r="R136" t="n">
+      <c r="S136" t="n">
         <v>8.0</v>
       </c>
-      <c r="S136" t="n">
+      <c r="T136" t="n">
         <v>6.0</v>
       </c>
-      <c r="T136" t="n">
+      <c r="U136" t="n">
         <v>1.29411764705882</v>
       </c>
-      <c r="U136" t="n">
+      <c r="V136" t="n">
         <v>0.422436357091195</v>
       </c>
-      <c r="V136" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X136" t="n">
         <v>-0.846153846153846</v>
       </c>
-      <c r="X136" t="n">
+      <c r="Y136" t="n">
         <v>-1.46153846153846</v>
       </c>
     </row>
@@ -10242,33 +10653,36 @@
         <v>2.0</v>
       </c>
       <c r="O137" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P137" t="n">
         <v>0.352941176470588</v>
       </c>
-      <c r="P137" t="n">
+      <c r="Q137" t="n">
         <v>-0.470768432900718</v>
       </c>
-      <c r="Q137" t="n">
+      <c r="R137" t="n">
         <v>-0.158665765604383</v>
       </c>
-      <c r="R137" t="n">
+      <c r="S137" t="n">
         <v>8.0</v>
       </c>
-      <c r="S137" t="n">
+      <c r="T137" t="n">
         <v>5.0</v>
       </c>
-      <c r="T137" t="n">
+      <c r="U137" t="n">
         <v>1.76470588235294</v>
       </c>
-      <c r="U137" t="n">
+      <c r="V137" t="n">
         <v>0.426927175552495</v>
       </c>
-      <c r="V137" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W137" t="n">
         <v>0.0</v>
       </c>
       <c r="X137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y137" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -10316,33 +10730,36 @@
         <v>3.0</v>
       </c>
       <c r="O138" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="P138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q138" t="n">
         <v>-0.291824595803257</v>
       </c>
-      <c r="Q138" t="n">
+      <c r="R138" t="n">
         <v>-0.320256307610174</v>
-      </c>
-      <c r="R138" t="n">
-        <v>6.0</v>
       </c>
       <c r="S138" t="n">
         <v>6.0</v>
       </c>
       <c r="T138" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="U138" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V138" t="n">
         <v>0.332201819473054</v>
       </c>
-      <c r="V138" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X138" t="n">
         <v>0.166666666666667</v>
       </c>
-      <c r="X138" t="n">
+      <c r="Y138" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -10390,33 +10807,36 @@
         <v>0.0</v>
       </c>
       <c r="O139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P139" t="n">
         <v>0.4</v>
       </c>
-      <c r="P139" t="n">
+      <c r="Q139" t="n">
         <v>-0.724137931034484</v>
       </c>
-      <c r="Q139" t="n">
+      <c r="R139" t="n">
         <v>0.166666666666667</v>
       </c>
-      <c r="R139" t="n">
+      <c r="S139" t="n">
         <v>9.0</v>
       </c>
-      <c r="S139" t="n">
+      <c r="T139" t="n">
         <v>7.0</v>
       </c>
-      <c r="T139" t="n">
+      <c r="U139" t="n">
         <v>1.2</v>
       </c>
-      <c r="U139" t="n">
+      <c r="V139" t="n">
         <v>0.246196435088375</v>
       </c>
-      <c r="V139" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X139" t="n">
         <v>-0.666666666666667</v>
       </c>
-      <c r="X139" t="n">
+      <c r="Y139" t="n">
         <v>-1.88888888888889</v>
       </c>
     </row>
@@ -10464,33 +10884,36 @@
         <v>0.0</v>
       </c>
       <c r="O140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P140" t="n">
         <v>0.857142857142857</v>
       </c>
-      <c r="P140" t="n">
+      <c r="Q140" t="n">
         <v>0.437004507385583</v>
       </c>
-      <c r="Q140" t="n">
-        <v>0.0</v>
-      </c>
       <c r="R140" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="S140" t="n">
         <v>6.0</v>
       </c>
       <c r="T140" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="U140" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V140" t="n">
         <v>0.370438079501184</v>
       </c>
-      <c r="V140" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X140" t="n">
         <v>-0.181818181818182</v>
       </c>
-      <c r="X140" t="n">
+      <c r="Y140" t="n">
         <v>-0.181818181818182</v>
       </c>
     </row>
@@ -10538,33 +10961,36 @@
         <v>0.0</v>
       </c>
       <c r="O141" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P141" t="n">
         <v>0.285714285714286</v>
       </c>
-      <c r="P141" t="n">
+      <c r="Q141" t="n">
         <v>-0.75</v>
       </c>
-      <c r="Q141" t="e">
+      <c r="R141" t="e">
         <v>#N/A</v>
       </c>
-      <c r="R141" t="n">
-        <v>2.0</v>
-      </c>
       <c r="S141" t="n">
         <v>2.0</v>
       </c>
       <c r="T141" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="U141" t="n">
         <v>1.0</v>
       </c>
       <c r="V141" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W141" t="n">
         <v>0.0</v>
       </c>
       <c r="X141" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y141" t="n">
         <v>-0.142857142857143</v>
       </c>
     </row>
@@ -10612,33 +11038,36 @@
         <v>0.0</v>
       </c>
       <c r="O142" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P142" t="n">
         <v>0.25</v>
       </c>
-      <c r="P142" t="n">
+      <c r="Q142" t="n">
         <v>-0.516397779494322</v>
       </c>
-      <c r="Q142" t="n">
+      <c r="R142" t="n">
         <v>-0.258198889747161</v>
       </c>
-      <c r="R142" t="n">
-        <v>2.0</v>
-      </c>
       <c r="S142" t="n">
         <v>2.0</v>
       </c>
       <c r="T142" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="U142" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V142" t="n">
         <v>0.96</v>
       </c>
-      <c r="V142" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W142" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X142" t="n">
         <v>-0.571428571428571</v>
       </c>
-      <c r="X142" t="n">
+      <c r="Y142" t="n">
         <v>-1.71428571428571</v>
       </c>
     </row>
@@ -10686,33 +11115,36 @@
         <v>5.0</v>
       </c>
       <c r="O143" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P143" t="n">
         <v>0.709677419354839</v>
       </c>
-      <c r="P143" t="n">
+      <c r="Q143" t="n">
         <v>0.352034443055608</v>
       </c>
-      <c r="Q143" t="n">
+      <c r="R143" t="n">
         <v>-0.101970433871213</v>
       </c>
-      <c r="R143" t="n">
+      <c r="S143" t="n">
         <v>8.0</v>
       </c>
-      <c r="S143" t="n">
+      <c r="T143" t="n">
         <v>5.0</v>
       </c>
-      <c r="T143" t="n">
+      <c r="U143" t="n">
         <v>1.12903225806452</v>
       </c>
-      <c r="U143" t="n">
+      <c r="V143" t="n">
         <v>0.476294361734926</v>
       </c>
-      <c r="V143" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W143" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X143" t="n">
         <v>-0.111111111111111</v>
       </c>
-      <c r="X143" t="n">
+      <c r="Y143" t="n">
         <v>-0.222222222222222</v>
       </c>
     </row>
@@ -10760,33 +11192,36 @@
         <v>7.0</v>
       </c>
       <c r="O144" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P144" t="n">
         <v>0.424242424242424</v>
       </c>
-      <c r="P144" t="n">
+      <c r="Q144" t="n">
         <v>-0.187501868451079</v>
       </c>
-      <c r="Q144" t="n">
+      <c r="R144" t="n">
         <v>-0.0863412709166983</v>
       </c>
-      <c r="R144" t="n">
+      <c r="S144" t="n">
         <v>10.0</v>
       </c>
-      <c r="S144" t="n">
+      <c r="T144" t="n">
         <v>5.0</v>
       </c>
-      <c r="T144" t="n">
+      <c r="U144" t="n">
         <v>2.12121212121212</v>
       </c>
-      <c r="U144" t="n">
+      <c r="V144" t="n">
         <v>0.301874302529569</v>
       </c>
-      <c r="V144" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W144" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X144" t="n">
         <v>-0.0555555555555556</v>
       </c>
-      <c r="X144" t="n">
+      <c r="Y144" t="n">
         <v>-0.0555555555555556</v>
       </c>
     </row>
@@ -10834,33 +11269,36 @@
         <v>9.0</v>
       </c>
       <c r="O145" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P145" t="n">
         <v>0.307692307692308</v>
       </c>
-      <c r="P145" t="n">
+      <c r="Q145" t="n">
         <v>0.138019178778902</v>
       </c>
-      <c r="Q145" t="n">
+      <c r="R145" t="n">
         <v>-0.209913634108283</v>
       </c>
-      <c r="R145" t="n">
+      <c r="S145" t="n">
         <v>11.0</v>
       </c>
-      <c r="S145" t="n">
+      <c r="T145" t="n">
         <v>5.0</v>
       </c>
-      <c r="T145" t="n">
+      <c r="U145" t="n">
         <v>2.19230769230769</v>
       </c>
-      <c r="U145" t="n">
+      <c r="V145" t="n">
         <v>0.268980944958539</v>
       </c>
-      <c r="V145" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W145" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X145" t="n">
         <v>0.266666666666667</v>
       </c>
-      <c r="X145" t="n">
+      <c r="Y145" t="n">
         <v>0.733333333333333</v>
       </c>
     </row>
@@ -10910,31 +11348,34 @@
       <c r="O146" t="n">
         <v>0.0</v>
       </c>
-      <c r="P146" t="e">
-        <v>#N/A</v>
+      <c r="P146" t="n">
+        <v>0.0</v>
       </c>
       <c r="Q146" t="e">
         <v>#N/A</v>
       </c>
-      <c r="R146" t="n">
-        <v>2.0</v>
+      <c r="R146" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S146" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T146" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U146" t="e">
+        <v>1.0</v>
+      </c>
+      <c r="U146" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V146" t="e">
         <v>#N/A</v>
       </c>
-      <c r="V146" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W146" t="n">
         <v>0.0</v>
       </c>
       <c r="X146" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y146" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -10982,33 +11423,36 @@
         <v>0.0</v>
       </c>
       <c r="O147" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P147" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q147" t="n">
         <v>-1.0</v>
       </c>
-      <c r="Q147" t="e">
+      <c r="R147" t="e">
         <v>#N/A</v>
       </c>
-      <c r="R147" t="n">
-        <v>3.0</v>
-      </c>
       <c r="S147" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T147" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="U147" t="e">
+        <v>1.0</v>
+      </c>
+      <c r="U147" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V147" t="e">
         <v>#N/A</v>
       </c>
-      <c r="V147" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W147" t="n">
         <v>0.0</v>
       </c>
       <c r="X147" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y147" t="n">
         <v>0.0</v>
       </c>
     </row>
